--- a/Code/Results/Cases/Case_0_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_35/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.886631235687519</v>
+        <v>0.8866312356875156</v>
       </c>
       <c r="D2">
-        <v>0.8964646291049051</v>
+        <v>0.8964646291049017</v>
       </c>
       <c r="E2">
-        <v>0.9060552711855554</v>
+        <v>0.9060552711855524</v>
       </c>
       <c r="F2">
-        <v>0.9141248556809565</v>
+        <v>0.9141248556809537</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.025314736670694</v>
       </c>
       <c r="J2">
-        <v>0.9128262617728927</v>
+        <v>0.9128262617728894</v>
       </c>
       <c r="K2">
-        <v>0.909583341485712</v>
+        <v>0.9095833414857084</v>
       </c>
       <c r="L2">
-        <v>0.9189995726202491</v>
+        <v>0.9189995726202459</v>
       </c>
       <c r="M2">
-        <v>0.9269260807293445</v>
+        <v>0.926926080729342</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9112201551826226</v>
+        <v>0.9112201551826183</v>
       </c>
       <c r="D3">
-        <v>0.9199531763796625</v>
+        <v>0.9199531763796582</v>
       </c>
       <c r="E3">
-        <v>0.927245213742008</v>
+        <v>0.9272452137420042</v>
       </c>
       <c r="F3">
-        <v>0.9361545683751294</v>
+        <v>0.9361545683751261</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03064634367479</v>
+        <v>1.030646343674789</v>
       </c>
       <c r="J3">
-        <v>0.9344629744349233</v>
+        <v>0.9344629744349192</v>
       </c>
       <c r="K3">
-        <v>0.9317242273496247</v>
+        <v>0.9317242273496201</v>
       </c>
       <c r="L3">
-        <v>0.9389021937789315</v>
+        <v>0.9389021937789278</v>
       </c>
       <c r="M3">
-        <v>0.9476752502625099</v>
+        <v>0.9476752502625067</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9255364536147557</v>
+        <v>0.9255364536147546</v>
       </c>
       <c r="D4">
-        <v>0.9336461315588541</v>
+        <v>0.9336461315588533</v>
       </c>
       <c r="E4">
-        <v>0.9395996829564767</v>
+        <v>0.9395996829564756</v>
       </c>
       <c r="F4">
-        <v>0.9490182878147335</v>
+        <v>0.9490182878147326</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.033728399882847</v>
       </c>
       <c r="J4">
-        <v>0.9470578328836604</v>
+        <v>0.9470578328836596</v>
       </c>
       <c r="K4">
-        <v>0.9446173475220055</v>
+        <v>0.9446173475220048</v>
       </c>
       <c r="L4">
-        <v>0.9504862300181262</v>
+        <v>0.950486230018125</v>
       </c>
       <c r="M4">
-        <v>0.9597736221526153</v>
+        <v>0.9597736221526142</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9312450989927823</v>
+        <v>0.9312450989927828</v>
       </c>
       <c r="D5">
-        <v>0.9391095152478895</v>
+        <v>0.93910951524789</v>
       </c>
       <c r="E5">
-        <v>0.9445290964602596</v>
+        <v>0.9445290964602601</v>
       </c>
       <c r="F5">
-        <v>0.9541541623469074</v>
+        <v>0.9541541623469072</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,13 +553,13 @@
         <v>1.034950956677867</v>
       </c>
       <c r="J5">
-        <v>0.952078688809726</v>
+        <v>0.9520786888097265</v>
       </c>
       <c r="K5">
-        <v>0.9497582432874975</v>
+        <v>0.9497582432874981</v>
       </c>
       <c r="L5">
-        <v>0.9551037606347539</v>
+        <v>0.9551037606347542</v>
       </c>
       <c r="M5">
         <v>0.9645998930706848</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9321870796521505</v>
+        <v>0.9321870796521551</v>
       </c>
       <c r="D6">
-        <v>0.9400111997015802</v>
+        <v>0.9400111997015851</v>
       </c>
       <c r="E6">
-        <v>0.9453426516067042</v>
+        <v>0.9453426516067083</v>
       </c>
       <c r="F6">
-        <v>0.9550019509443406</v>
+        <v>0.9550019509443441</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035152285048058</v>
+        <v>1.035152285048059</v>
       </c>
       <c r="J6">
-        <v>0.9529070801958617</v>
+        <v>0.9529070801958663</v>
       </c>
       <c r="K6">
-        <v>0.9506065070603662</v>
+        <v>0.9506065070603711</v>
       </c>
       <c r="L6">
-        <v>0.9558655850659064</v>
+        <v>0.9558655850659102</v>
       </c>
       <c r="M6">
-        <v>0.9653963412238765</v>
+        <v>0.9653963412238797</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9256138734939267</v>
+        <v>0.9256138734939237</v>
       </c>
       <c r="D7">
-        <v>0.9337202129641722</v>
+        <v>0.933720212964169</v>
       </c>
       <c r="E7">
-        <v>0.9396665239388925</v>
+        <v>0.9396665239388899</v>
       </c>
       <c r="F7">
-        <v>0.9490879168227369</v>
+        <v>0.9490879168227343</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033745007019909</v>
+        <v>1.033745007019908</v>
       </c>
       <c r="J7">
-        <v>0.9471259313303663</v>
+        <v>0.9471259313303634</v>
       </c>
       <c r="K7">
-        <v>0.944687069522018</v>
+        <v>0.9446870695220149</v>
       </c>
       <c r="L7">
-        <v>0.9505488596213748</v>
+        <v>0.9505488596213721</v>
       </c>
       <c r="M7">
-        <v>0.9598390697146538</v>
+        <v>0.9598390697146514</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8953236188828425</v>
+        <v>0.8953236188828358</v>
       </c>
       <c r="D8">
-        <v>0.9047635068915248</v>
+        <v>0.9047635068915179</v>
       </c>
       <c r="E8">
-        <v>0.9135414505976763</v>
+        <v>0.9135414505976707</v>
       </c>
       <c r="F8">
-        <v>0.9219022446987366</v>
+        <v>0.9219022446987316</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027203578147533</v>
+        <v>1.027203578147531</v>
       </c>
       <c r="J8">
-        <v>0.9204750078900917</v>
+        <v>0.9204750078900856</v>
       </c>
       <c r="K8">
-        <v>0.9174092509539689</v>
+        <v>0.917409250953962</v>
       </c>
       <c r="L8">
-        <v>0.9260355849683327</v>
+        <v>0.9260355849683272</v>
       </c>
       <c r="M8">
-        <v>0.9342554325396917</v>
+        <v>0.9342554325396869</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8239529342556003</v>
+        <v>0.8239529342556021</v>
       </c>
       <c r="D9">
-        <v>0.8367925972647087</v>
+        <v>0.8367925972647099</v>
       </c>
       <c r="E9">
-        <v>0.8522623629369719</v>
+        <v>0.8522623629369735</v>
       </c>
       <c r="F9">
-        <v>0.8584712383546453</v>
+        <v>0.8584712383546469</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.011672783603542</v>
+        <v>1.011672783603543</v>
       </c>
       <c r="J9">
-        <v>0.8577294579316641</v>
+        <v>0.8577294579316657</v>
       </c>
       <c r="K9">
-        <v>0.8532355559318112</v>
+        <v>0.8532355559318128</v>
       </c>
       <c r="L9">
-        <v>0.8683135498638669</v>
+        <v>0.8683135498638686</v>
       </c>
       <c r="M9">
-        <v>0.8743705199488552</v>
+        <v>0.8743705199488567</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7397242762951302</v>
+        <v>0.7397242762951306</v>
       </c>
       <c r="D10">
-        <v>0.7572104968023478</v>
+        <v>0.7572104968023482</v>
       </c>
       <c r="E10">
-        <v>0.7807078103586582</v>
+        <v>0.7807078103586585</v>
       </c>
       <c r="F10">
-        <v>0.7853689197122971</v>
+        <v>0.7853689197122969</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.9937013291207508</v>
+        <v>0.9937013291207509</v>
       </c>
       <c r="J10">
-        <v>0.7841086830239882</v>
+        <v>0.7841086830239886</v>
       </c>
       <c r="K10">
-        <v>0.7779771788142851</v>
+        <v>0.7779771788142855</v>
       </c>
       <c r="L10">
-        <v>0.8006106767960619</v>
+        <v>0.8006106767960622</v>
       </c>
       <c r="M10">
-        <v>0.8051089999240206</v>
+        <v>0.8051089999240207</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7397242762951302</v>
+        <v>0.7397242762951306</v>
       </c>
       <c r="D11">
-        <v>0.7572104968023478</v>
+        <v>0.7572104968023482</v>
       </c>
       <c r="E11">
-        <v>0.7807078103586582</v>
+        <v>0.7807078103586585</v>
       </c>
       <c r="F11">
-        <v>0.7853689197122971</v>
+        <v>0.7853689197122969</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9937013291207508</v>
+        <v>0.9937013291207509</v>
       </c>
       <c r="J11">
-        <v>0.7841086830239882</v>
+        <v>0.7841086830239886</v>
       </c>
       <c r="K11">
-        <v>0.7779771788142851</v>
+        <v>0.7779771788142855</v>
       </c>
       <c r="L11">
-        <v>0.8006106767960619</v>
+        <v>0.8006106767960622</v>
       </c>
       <c r="M11">
-        <v>0.8051089999240206</v>
+        <v>0.8051089999240207</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7397242762951302</v>
+        <v>0.7397242762951306</v>
       </c>
       <c r="D12">
-        <v>0.7572104968023478</v>
+        <v>0.7572104968023482</v>
       </c>
       <c r="E12">
-        <v>0.7807078103586582</v>
+        <v>0.7807078103586585</v>
       </c>
       <c r="F12">
-        <v>0.7853689197122971</v>
+        <v>0.7853689197122969</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9937013291207508</v>
+        <v>0.9937013291207509</v>
       </c>
       <c r="J12">
-        <v>0.7841086830239882</v>
+        <v>0.7841086830239886</v>
       </c>
       <c r="K12">
-        <v>0.7779771788142851</v>
+        <v>0.7779771788142855</v>
       </c>
       <c r="L12">
-        <v>0.8006106767960619</v>
+        <v>0.8006106767960622</v>
       </c>
       <c r="M12">
-        <v>0.8051089999240206</v>
+        <v>0.8051089999240207</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7397242762951302</v>
+        <v>0.7397242762951306</v>
       </c>
       <c r="D13">
-        <v>0.7572104968023478</v>
+        <v>0.7572104968023482</v>
       </c>
       <c r="E13">
-        <v>0.7807078103586582</v>
+        <v>0.7807078103586585</v>
       </c>
       <c r="F13">
-        <v>0.7853689197122971</v>
+        <v>0.7853689197122969</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9937013291207508</v>
+        <v>0.9937013291207509</v>
       </c>
       <c r="J13">
-        <v>0.7841086830239882</v>
+        <v>0.7841086830239886</v>
       </c>
       <c r="K13">
-        <v>0.7779771788142851</v>
+        <v>0.7779771788142855</v>
       </c>
       <c r="L13">
-        <v>0.8006106767960619</v>
+        <v>0.8006106767960622</v>
       </c>
       <c r="M13">
-        <v>0.8051089999240206</v>
+        <v>0.8051089999240207</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7397242762951302</v>
+        <v>0.7397242762951306</v>
       </c>
       <c r="D14">
-        <v>0.7572104968023478</v>
+        <v>0.7572104968023482</v>
       </c>
       <c r="E14">
-        <v>0.7807078103586582</v>
+        <v>0.7807078103586585</v>
       </c>
       <c r="F14">
-        <v>0.7853689197122971</v>
+        <v>0.7853689197122969</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9937013291207508</v>
+        <v>0.9937013291207509</v>
       </c>
       <c r="J14">
-        <v>0.7841086830239882</v>
+        <v>0.7841086830239886</v>
       </c>
       <c r="K14">
-        <v>0.7779771788142851</v>
+        <v>0.7779771788142855</v>
       </c>
       <c r="L14">
-        <v>0.8006106767960619</v>
+        <v>0.8006106767960622</v>
       </c>
       <c r="M14">
-        <v>0.8051089999240206</v>
+        <v>0.8051089999240207</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7397242762951302</v>
+        <v>0.7397242762951306</v>
       </c>
       <c r="D15">
-        <v>0.7572104968023478</v>
+        <v>0.7572104968023482</v>
       </c>
       <c r="E15">
-        <v>0.7807078103586582</v>
+        <v>0.7807078103586585</v>
       </c>
       <c r="F15">
-        <v>0.7853689197122971</v>
+        <v>0.7853689197122969</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9937013291207508</v>
+        <v>0.9937013291207509</v>
       </c>
       <c r="J15">
-        <v>0.7841086830239882</v>
+        <v>0.7841086830239886</v>
       </c>
       <c r="K15">
-        <v>0.7779771788142851</v>
+        <v>0.7779771788142855</v>
       </c>
       <c r="L15">
-        <v>0.8006106767960619</v>
+        <v>0.8006106767960622</v>
       </c>
       <c r="M15">
-        <v>0.8051089999240206</v>
+        <v>0.8051089999240207</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7397242762951302</v>
+        <v>0.7397242762951306</v>
       </c>
       <c r="D16">
-        <v>0.7572104968023478</v>
+        <v>0.7572104968023482</v>
       </c>
       <c r="E16">
-        <v>0.7807078103586582</v>
+        <v>0.7807078103586585</v>
       </c>
       <c r="F16">
-        <v>0.7853689197122971</v>
+        <v>0.7853689197122969</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.9937013291207508</v>
+        <v>0.9937013291207509</v>
       </c>
       <c r="J16">
-        <v>0.7841086830239882</v>
+        <v>0.7841086830239886</v>
       </c>
       <c r="K16">
-        <v>0.7779771788142851</v>
+        <v>0.7779771788142855</v>
       </c>
       <c r="L16">
-        <v>0.8006106767960619</v>
+        <v>0.8006106767960622</v>
       </c>
       <c r="M16">
-        <v>0.8051089999240206</v>
+        <v>0.8051089999240207</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7397242762951302</v>
+        <v>0.7397242762951306</v>
       </c>
       <c r="D17">
-        <v>0.7572104968023478</v>
+        <v>0.7572104968023482</v>
       </c>
       <c r="E17">
-        <v>0.7807078103586582</v>
+        <v>0.7807078103586585</v>
       </c>
       <c r="F17">
-        <v>0.7853689197122971</v>
+        <v>0.7853689197122969</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.9937013291207508</v>
+        <v>0.9937013291207509</v>
       </c>
       <c r="J17">
-        <v>0.7841086830239882</v>
+        <v>0.7841086830239886</v>
       </c>
       <c r="K17">
-        <v>0.7779771788142851</v>
+        <v>0.7779771788142855</v>
       </c>
       <c r="L17">
-        <v>0.8006106767960619</v>
+        <v>0.8006106767960622</v>
       </c>
       <c r="M17">
-        <v>0.8051089999240206</v>
+        <v>0.8051089999240207</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7397242762951302</v>
+        <v>0.7397242762951306</v>
       </c>
       <c r="D18">
-        <v>0.7572104968023478</v>
+        <v>0.7572104968023482</v>
       </c>
       <c r="E18">
-        <v>0.7807078103586582</v>
+        <v>0.7807078103586585</v>
       </c>
       <c r="F18">
-        <v>0.7853689197122971</v>
+        <v>0.7853689197122969</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0.9937013291207508</v>
+        <v>0.9937013291207509</v>
       </c>
       <c r="J18">
-        <v>0.7841086830239882</v>
+        <v>0.7841086830239886</v>
       </c>
       <c r="K18">
-        <v>0.7779771788142851</v>
+        <v>0.7779771788142855</v>
       </c>
       <c r="L18">
-        <v>0.8006106767960619</v>
+        <v>0.8006106767960622</v>
       </c>
       <c r="M18">
-        <v>0.8051089999240206</v>
+        <v>0.8051089999240207</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7397242762951302</v>
+        <v>0.7397242762951306</v>
       </c>
       <c r="D19">
-        <v>0.7572104968023478</v>
+        <v>0.7572104968023482</v>
       </c>
       <c r="E19">
-        <v>0.7807078103586582</v>
+        <v>0.7807078103586585</v>
       </c>
       <c r="F19">
-        <v>0.7853689197122971</v>
+        <v>0.7853689197122969</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0.9937013291207508</v>
+        <v>0.9937013291207509</v>
       </c>
       <c r="J19">
-        <v>0.7841086830239882</v>
+        <v>0.7841086830239886</v>
       </c>
       <c r="K19">
-        <v>0.7779771788142851</v>
+        <v>0.7779771788142855</v>
       </c>
       <c r="L19">
-        <v>0.8006106767960619</v>
+        <v>0.8006106767960622</v>
       </c>
       <c r="M19">
-        <v>0.8051089999240206</v>
+        <v>0.8051089999240207</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7397242762951302</v>
+        <v>0.7397242762951306</v>
       </c>
       <c r="D20">
-        <v>0.7572104968023478</v>
+        <v>0.7572104968023482</v>
       </c>
       <c r="E20">
-        <v>0.7807078103586582</v>
+        <v>0.7807078103586585</v>
       </c>
       <c r="F20">
-        <v>0.7853689197122971</v>
+        <v>0.7853689197122969</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0.9937013291207508</v>
+        <v>0.9937013291207509</v>
       </c>
       <c r="J20">
-        <v>0.7841086830239882</v>
+        <v>0.7841086830239886</v>
       </c>
       <c r="K20">
-        <v>0.7779771788142851</v>
+        <v>0.7779771788142855</v>
       </c>
       <c r="L20">
-        <v>0.8006106767960619</v>
+        <v>0.8006106767960622</v>
       </c>
       <c r="M20">
-        <v>0.8051089999240206</v>
+        <v>0.8051089999240207</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7397242762951302</v>
+        <v>0.7397242762951306</v>
       </c>
       <c r="D21">
-        <v>0.7572104968023478</v>
+        <v>0.7572104968023482</v>
       </c>
       <c r="E21">
-        <v>0.7807078103586582</v>
+        <v>0.7807078103586585</v>
       </c>
       <c r="F21">
-        <v>0.7853689197122971</v>
+        <v>0.7853689197122969</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9937013291207508</v>
+        <v>0.9937013291207509</v>
       </c>
       <c r="J21">
-        <v>0.7841086830239882</v>
+        <v>0.7841086830239886</v>
       </c>
       <c r="K21">
-        <v>0.7779771788142851</v>
+        <v>0.7779771788142855</v>
       </c>
       <c r="L21">
-        <v>0.8006106767960619</v>
+        <v>0.8006106767960622</v>
       </c>
       <c r="M21">
-        <v>0.8051089999240206</v>
+        <v>0.8051089999240207</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7397242762951302</v>
+        <v>0.7397242762951306</v>
       </c>
       <c r="D22">
-        <v>0.7572104968023478</v>
+        <v>0.7572104968023482</v>
       </c>
       <c r="E22">
-        <v>0.7807078103586582</v>
+        <v>0.7807078103586585</v>
       </c>
       <c r="F22">
-        <v>0.7853689197122971</v>
+        <v>0.7853689197122969</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9937013291207508</v>
+        <v>0.9937013291207509</v>
       </c>
       <c r="J22">
-        <v>0.7841086830239882</v>
+        <v>0.7841086830239886</v>
       </c>
       <c r="K22">
-        <v>0.7779771788142851</v>
+        <v>0.7779771788142855</v>
       </c>
       <c r="L22">
-        <v>0.8006106767960619</v>
+        <v>0.8006106767960622</v>
       </c>
       <c r="M22">
-        <v>0.8051089999240206</v>
+        <v>0.8051089999240207</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7397242762951302</v>
+        <v>0.7397242762951306</v>
       </c>
       <c r="D23">
-        <v>0.7572104968023478</v>
+        <v>0.7572104968023482</v>
       </c>
       <c r="E23">
-        <v>0.7807078103586582</v>
+        <v>0.7807078103586585</v>
       </c>
       <c r="F23">
-        <v>0.7853689197122971</v>
+        <v>0.7853689197122969</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9937013291207508</v>
+        <v>0.9937013291207509</v>
       </c>
       <c r="J23">
-        <v>0.7841086830239882</v>
+        <v>0.7841086830239886</v>
       </c>
       <c r="K23">
-        <v>0.7779771788142851</v>
+        <v>0.7779771788142855</v>
       </c>
       <c r="L23">
-        <v>0.8006106767960619</v>
+        <v>0.8006106767960622</v>
       </c>
       <c r="M23">
-        <v>0.8051089999240206</v>
+        <v>0.8051089999240207</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7397242762951302</v>
+        <v>0.7397242762951306</v>
       </c>
       <c r="D24">
-        <v>0.7572104968023478</v>
+        <v>0.7572104968023482</v>
       </c>
       <c r="E24">
-        <v>0.7807078103586582</v>
+        <v>0.7807078103586585</v>
       </c>
       <c r="F24">
-        <v>0.7853689197122971</v>
+        <v>0.7853689197122969</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9937013291207508</v>
+        <v>0.9937013291207509</v>
       </c>
       <c r="J24">
-        <v>0.7841086830239882</v>
+        <v>0.7841086830239886</v>
       </c>
       <c r="K24">
-        <v>0.7779771788142851</v>
+        <v>0.7779771788142855</v>
       </c>
       <c r="L24">
-        <v>0.8006106767960619</v>
+        <v>0.8006106767960622</v>
       </c>
       <c r="M24">
-        <v>0.8051089999240206</v>
+        <v>0.8051089999240207</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7397242762951302</v>
+        <v>0.7397242762951306</v>
       </c>
       <c r="D25">
-        <v>0.7572104968023478</v>
+        <v>0.7572104968023482</v>
       </c>
       <c r="E25">
-        <v>0.7807078103586582</v>
+        <v>0.7807078103586585</v>
       </c>
       <c r="F25">
-        <v>0.7853689197122971</v>
+        <v>0.7853689197122969</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9937013291207508</v>
+        <v>0.9937013291207509</v>
       </c>
       <c r="J25">
-        <v>0.7841086830239882</v>
+        <v>0.7841086830239886</v>
       </c>
       <c r="K25">
-        <v>0.7779771788142851</v>
+        <v>0.7779771788142855</v>
       </c>
       <c r="L25">
-        <v>0.8006106767960619</v>
+        <v>0.8006106767960622</v>
       </c>
       <c r="M25">
-        <v>0.8051089999240206</v>
+        <v>0.8051089999240207</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_35/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8866312356875156</v>
+        <v>0.886631235687519</v>
       </c>
       <c r="D2">
-        <v>0.8964646291049017</v>
+        <v>0.8964646291049051</v>
       </c>
       <c r="E2">
-        <v>0.9060552711855524</v>
+        <v>0.9060552711855554</v>
       </c>
       <c r="F2">
-        <v>0.9141248556809537</v>
+        <v>0.9141248556809565</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.025314736670694</v>
       </c>
       <c r="J2">
-        <v>0.9128262617728894</v>
+        <v>0.9128262617728927</v>
       </c>
       <c r="K2">
-        <v>0.9095833414857084</v>
+        <v>0.909583341485712</v>
       </c>
       <c r="L2">
-        <v>0.9189995726202459</v>
+        <v>0.9189995726202491</v>
       </c>
       <c r="M2">
-        <v>0.926926080729342</v>
+        <v>0.9269260807293445</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9112201551826183</v>
+        <v>0.9112201551826226</v>
       </c>
       <c r="D3">
-        <v>0.9199531763796582</v>
+        <v>0.9199531763796625</v>
       </c>
       <c r="E3">
-        <v>0.9272452137420042</v>
+        <v>0.927245213742008</v>
       </c>
       <c r="F3">
-        <v>0.9361545683751261</v>
+        <v>0.9361545683751294</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030646343674789</v>
+        <v>1.03064634367479</v>
       </c>
       <c r="J3">
-        <v>0.9344629744349192</v>
+        <v>0.9344629744349233</v>
       </c>
       <c r="K3">
-        <v>0.9317242273496201</v>
+        <v>0.9317242273496247</v>
       </c>
       <c r="L3">
-        <v>0.9389021937789278</v>
+        <v>0.9389021937789315</v>
       </c>
       <c r="M3">
-        <v>0.9476752502625067</v>
+        <v>0.9476752502625099</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9255364536147546</v>
+        <v>0.9255364536147557</v>
       </c>
       <c r="D4">
-        <v>0.9336461315588533</v>
+        <v>0.9336461315588541</v>
       </c>
       <c r="E4">
-        <v>0.9395996829564756</v>
+        <v>0.9395996829564767</v>
       </c>
       <c r="F4">
-        <v>0.9490182878147326</v>
+        <v>0.9490182878147335</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.033728399882847</v>
       </c>
       <c r="J4">
-        <v>0.9470578328836596</v>
+        <v>0.9470578328836604</v>
       </c>
       <c r="K4">
-        <v>0.9446173475220048</v>
+        <v>0.9446173475220055</v>
       </c>
       <c r="L4">
-        <v>0.950486230018125</v>
+        <v>0.9504862300181262</v>
       </c>
       <c r="M4">
-        <v>0.9597736221526142</v>
+        <v>0.9597736221526153</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9312450989927828</v>
+        <v>0.9312450989927823</v>
       </c>
       <c r="D5">
-        <v>0.93910951524789</v>
+        <v>0.9391095152478895</v>
       </c>
       <c r="E5">
-        <v>0.9445290964602601</v>
+        <v>0.9445290964602596</v>
       </c>
       <c r="F5">
-        <v>0.9541541623469072</v>
+        <v>0.9541541623469074</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,13 +553,13 @@
         <v>1.034950956677867</v>
       </c>
       <c r="J5">
-        <v>0.9520786888097265</v>
+        <v>0.952078688809726</v>
       </c>
       <c r="K5">
-        <v>0.9497582432874981</v>
+        <v>0.9497582432874975</v>
       </c>
       <c r="L5">
-        <v>0.9551037606347542</v>
+        <v>0.9551037606347539</v>
       </c>
       <c r="M5">
         <v>0.9645998930706848</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9321870796521551</v>
+        <v>0.9321870796521505</v>
       </c>
       <c r="D6">
-        <v>0.9400111997015851</v>
+        <v>0.9400111997015802</v>
       </c>
       <c r="E6">
-        <v>0.9453426516067083</v>
+        <v>0.9453426516067042</v>
       </c>
       <c r="F6">
-        <v>0.9550019509443441</v>
+        <v>0.9550019509443406</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035152285048059</v>
+        <v>1.035152285048058</v>
       </c>
       <c r="J6">
-        <v>0.9529070801958663</v>
+        <v>0.9529070801958617</v>
       </c>
       <c r="K6">
-        <v>0.9506065070603711</v>
+        <v>0.9506065070603662</v>
       </c>
       <c r="L6">
-        <v>0.9558655850659102</v>
+        <v>0.9558655850659064</v>
       </c>
       <c r="M6">
-        <v>0.9653963412238797</v>
+        <v>0.9653963412238765</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9256138734939237</v>
+        <v>0.9256138734939267</v>
       </c>
       <c r="D7">
-        <v>0.933720212964169</v>
+        <v>0.9337202129641722</v>
       </c>
       <c r="E7">
-        <v>0.9396665239388899</v>
+        <v>0.9396665239388925</v>
       </c>
       <c r="F7">
-        <v>0.9490879168227343</v>
+        <v>0.9490879168227369</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033745007019908</v>
+        <v>1.033745007019909</v>
       </c>
       <c r="J7">
-        <v>0.9471259313303634</v>
+        <v>0.9471259313303663</v>
       </c>
       <c r="K7">
-        <v>0.9446870695220149</v>
+        <v>0.944687069522018</v>
       </c>
       <c r="L7">
-        <v>0.9505488596213721</v>
+        <v>0.9505488596213748</v>
       </c>
       <c r="M7">
-        <v>0.9598390697146514</v>
+        <v>0.9598390697146538</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8953236188828358</v>
+        <v>0.8953236188828425</v>
       </c>
       <c r="D8">
-        <v>0.9047635068915179</v>
+        <v>0.9047635068915248</v>
       </c>
       <c r="E8">
-        <v>0.9135414505976707</v>
+        <v>0.9135414505976763</v>
       </c>
       <c r="F8">
-        <v>0.9219022446987316</v>
+        <v>0.9219022446987366</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027203578147531</v>
+        <v>1.027203578147533</v>
       </c>
       <c r="J8">
-        <v>0.9204750078900856</v>
+        <v>0.9204750078900917</v>
       </c>
       <c r="K8">
-        <v>0.917409250953962</v>
+        <v>0.9174092509539689</v>
       </c>
       <c r="L8">
-        <v>0.9260355849683272</v>
+        <v>0.9260355849683327</v>
       </c>
       <c r="M8">
-        <v>0.9342554325396869</v>
+        <v>0.9342554325396917</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8239529342556021</v>
+        <v>0.8239529342556003</v>
       </c>
       <c r="D9">
-        <v>0.8367925972647099</v>
+        <v>0.8367925972647087</v>
       </c>
       <c r="E9">
-        <v>0.8522623629369735</v>
+        <v>0.8522623629369719</v>
       </c>
       <c r="F9">
-        <v>0.8584712383546469</v>
+        <v>0.8584712383546453</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.011672783603543</v>
+        <v>1.011672783603542</v>
       </c>
       <c r="J9">
-        <v>0.8577294579316657</v>
+        <v>0.8577294579316641</v>
       </c>
       <c r="K9">
-        <v>0.8532355559318128</v>
+        <v>0.8532355559318112</v>
       </c>
       <c r="L9">
-        <v>0.8683135498638686</v>
+        <v>0.8683135498638669</v>
       </c>
       <c r="M9">
-        <v>0.8743705199488567</v>
+        <v>0.8743705199488552</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7397242762951306</v>
+        <v>0.7397242762951302</v>
       </c>
       <c r="D10">
-        <v>0.7572104968023482</v>
+        <v>0.7572104968023478</v>
       </c>
       <c r="E10">
-        <v>0.7807078103586585</v>
+        <v>0.7807078103586582</v>
       </c>
       <c r="F10">
-        <v>0.7853689197122969</v>
+        <v>0.7853689197122971</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.9937013291207509</v>
+        <v>0.9937013291207508</v>
       </c>
       <c r="J10">
-        <v>0.7841086830239886</v>
+        <v>0.7841086830239882</v>
       </c>
       <c r="K10">
-        <v>0.7779771788142855</v>
+        <v>0.7779771788142851</v>
       </c>
       <c r="L10">
-        <v>0.8006106767960622</v>
+        <v>0.8006106767960619</v>
       </c>
       <c r="M10">
-        <v>0.8051089999240207</v>
+        <v>0.8051089999240206</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7397242762951306</v>
+        <v>0.7397242762951302</v>
       </c>
       <c r="D11">
-        <v>0.7572104968023482</v>
+        <v>0.7572104968023478</v>
       </c>
       <c r="E11">
-        <v>0.7807078103586585</v>
+        <v>0.7807078103586582</v>
       </c>
       <c r="F11">
-        <v>0.7853689197122969</v>
+        <v>0.7853689197122971</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9937013291207509</v>
+        <v>0.9937013291207508</v>
       </c>
       <c r="J11">
-        <v>0.7841086830239886</v>
+        <v>0.7841086830239882</v>
       </c>
       <c r="K11">
-        <v>0.7779771788142855</v>
+        <v>0.7779771788142851</v>
       </c>
       <c r="L11">
-        <v>0.8006106767960622</v>
+        <v>0.8006106767960619</v>
       </c>
       <c r="M11">
-        <v>0.8051089999240207</v>
+        <v>0.8051089999240206</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7397242762951306</v>
+        <v>0.7397242762951302</v>
       </c>
       <c r="D12">
-        <v>0.7572104968023482</v>
+        <v>0.7572104968023478</v>
       </c>
       <c r="E12">
-        <v>0.7807078103586585</v>
+        <v>0.7807078103586582</v>
       </c>
       <c r="F12">
-        <v>0.7853689197122969</v>
+        <v>0.7853689197122971</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9937013291207509</v>
+        <v>0.9937013291207508</v>
       </c>
       <c r="J12">
-        <v>0.7841086830239886</v>
+        <v>0.7841086830239882</v>
       </c>
       <c r="K12">
-        <v>0.7779771788142855</v>
+        <v>0.7779771788142851</v>
       </c>
       <c r="L12">
-        <v>0.8006106767960622</v>
+        <v>0.8006106767960619</v>
       </c>
       <c r="M12">
-        <v>0.8051089999240207</v>
+        <v>0.8051089999240206</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7397242762951306</v>
+        <v>0.7397242762951302</v>
       </c>
       <c r="D13">
-        <v>0.7572104968023482</v>
+        <v>0.7572104968023478</v>
       </c>
       <c r="E13">
-        <v>0.7807078103586585</v>
+        <v>0.7807078103586582</v>
       </c>
       <c r="F13">
-        <v>0.7853689197122969</v>
+        <v>0.7853689197122971</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9937013291207509</v>
+        <v>0.9937013291207508</v>
       </c>
       <c r="J13">
-        <v>0.7841086830239886</v>
+        <v>0.7841086830239882</v>
       </c>
       <c r="K13">
-        <v>0.7779771788142855</v>
+        <v>0.7779771788142851</v>
       </c>
       <c r="L13">
-        <v>0.8006106767960622</v>
+        <v>0.8006106767960619</v>
       </c>
       <c r="M13">
-        <v>0.8051089999240207</v>
+        <v>0.8051089999240206</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7397242762951306</v>
+        <v>0.7397242762951302</v>
       </c>
       <c r="D14">
-        <v>0.7572104968023482</v>
+        <v>0.7572104968023478</v>
       </c>
       <c r="E14">
-        <v>0.7807078103586585</v>
+        <v>0.7807078103586582</v>
       </c>
       <c r="F14">
-        <v>0.7853689197122969</v>
+        <v>0.7853689197122971</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9937013291207509</v>
+        <v>0.9937013291207508</v>
       </c>
       <c r="J14">
-        <v>0.7841086830239886</v>
+        <v>0.7841086830239882</v>
       </c>
       <c r="K14">
-        <v>0.7779771788142855</v>
+        <v>0.7779771788142851</v>
       </c>
       <c r="L14">
-        <v>0.8006106767960622</v>
+        <v>0.8006106767960619</v>
       </c>
       <c r="M14">
-        <v>0.8051089999240207</v>
+        <v>0.8051089999240206</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7397242762951306</v>
+        <v>0.7397242762951302</v>
       </c>
       <c r="D15">
-        <v>0.7572104968023482</v>
+        <v>0.7572104968023478</v>
       </c>
       <c r="E15">
-        <v>0.7807078103586585</v>
+        <v>0.7807078103586582</v>
       </c>
       <c r="F15">
-        <v>0.7853689197122969</v>
+        <v>0.7853689197122971</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9937013291207509</v>
+        <v>0.9937013291207508</v>
       </c>
       <c r="J15">
-        <v>0.7841086830239886</v>
+        <v>0.7841086830239882</v>
       </c>
       <c r="K15">
-        <v>0.7779771788142855</v>
+        <v>0.7779771788142851</v>
       </c>
       <c r="L15">
-        <v>0.8006106767960622</v>
+        <v>0.8006106767960619</v>
       </c>
       <c r="M15">
-        <v>0.8051089999240207</v>
+        <v>0.8051089999240206</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7397242762951306</v>
+        <v>0.7397242762951302</v>
       </c>
       <c r="D16">
-        <v>0.7572104968023482</v>
+        <v>0.7572104968023478</v>
       </c>
       <c r="E16">
-        <v>0.7807078103586585</v>
+        <v>0.7807078103586582</v>
       </c>
       <c r="F16">
-        <v>0.7853689197122969</v>
+        <v>0.7853689197122971</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.9937013291207509</v>
+        <v>0.9937013291207508</v>
       </c>
       <c r="J16">
-        <v>0.7841086830239886</v>
+        <v>0.7841086830239882</v>
       </c>
       <c r="K16">
-        <v>0.7779771788142855</v>
+        <v>0.7779771788142851</v>
       </c>
       <c r="L16">
-        <v>0.8006106767960622</v>
+        <v>0.8006106767960619</v>
       </c>
       <c r="M16">
-        <v>0.8051089999240207</v>
+        <v>0.8051089999240206</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7397242762951306</v>
+        <v>0.7397242762951302</v>
       </c>
       <c r="D17">
-        <v>0.7572104968023482</v>
+        <v>0.7572104968023478</v>
       </c>
       <c r="E17">
-        <v>0.7807078103586585</v>
+        <v>0.7807078103586582</v>
       </c>
       <c r="F17">
-        <v>0.7853689197122969</v>
+        <v>0.7853689197122971</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.9937013291207509</v>
+        <v>0.9937013291207508</v>
       </c>
       <c r="J17">
-        <v>0.7841086830239886</v>
+        <v>0.7841086830239882</v>
       </c>
       <c r="K17">
-        <v>0.7779771788142855</v>
+        <v>0.7779771788142851</v>
       </c>
       <c r="L17">
-        <v>0.8006106767960622</v>
+        <v>0.8006106767960619</v>
       </c>
       <c r="M17">
-        <v>0.8051089999240207</v>
+        <v>0.8051089999240206</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7397242762951306</v>
+        <v>0.7397242762951302</v>
       </c>
       <c r="D18">
-        <v>0.7572104968023482</v>
+        <v>0.7572104968023478</v>
       </c>
       <c r="E18">
-        <v>0.7807078103586585</v>
+        <v>0.7807078103586582</v>
       </c>
       <c r="F18">
-        <v>0.7853689197122969</v>
+        <v>0.7853689197122971</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0.9937013291207509</v>
+        <v>0.9937013291207508</v>
       </c>
       <c r="J18">
-        <v>0.7841086830239886</v>
+        <v>0.7841086830239882</v>
       </c>
       <c r="K18">
-        <v>0.7779771788142855</v>
+        <v>0.7779771788142851</v>
       </c>
       <c r="L18">
-        <v>0.8006106767960622</v>
+        <v>0.8006106767960619</v>
       </c>
       <c r="M18">
-        <v>0.8051089999240207</v>
+        <v>0.8051089999240206</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7397242762951306</v>
+        <v>0.7397242762951302</v>
       </c>
       <c r="D19">
-        <v>0.7572104968023482</v>
+        <v>0.7572104968023478</v>
       </c>
       <c r="E19">
-        <v>0.7807078103586585</v>
+        <v>0.7807078103586582</v>
       </c>
       <c r="F19">
-        <v>0.7853689197122969</v>
+        <v>0.7853689197122971</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0.9937013291207509</v>
+        <v>0.9937013291207508</v>
       </c>
       <c r="J19">
-        <v>0.7841086830239886</v>
+        <v>0.7841086830239882</v>
       </c>
       <c r="K19">
-        <v>0.7779771788142855</v>
+        <v>0.7779771788142851</v>
       </c>
       <c r="L19">
-        <v>0.8006106767960622</v>
+        <v>0.8006106767960619</v>
       </c>
       <c r="M19">
-        <v>0.8051089999240207</v>
+        <v>0.8051089999240206</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7397242762951306</v>
+        <v>0.7397242762951302</v>
       </c>
       <c r="D20">
-        <v>0.7572104968023482</v>
+        <v>0.7572104968023478</v>
       </c>
       <c r="E20">
-        <v>0.7807078103586585</v>
+        <v>0.7807078103586582</v>
       </c>
       <c r="F20">
-        <v>0.7853689197122969</v>
+        <v>0.7853689197122971</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0.9937013291207509</v>
+        <v>0.9937013291207508</v>
       </c>
       <c r="J20">
-        <v>0.7841086830239886</v>
+        <v>0.7841086830239882</v>
       </c>
       <c r="K20">
-        <v>0.7779771788142855</v>
+        <v>0.7779771788142851</v>
       </c>
       <c r="L20">
-        <v>0.8006106767960622</v>
+        <v>0.8006106767960619</v>
       </c>
       <c r="M20">
-        <v>0.8051089999240207</v>
+        <v>0.8051089999240206</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7397242762951306</v>
+        <v>0.7397242762951302</v>
       </c>
       <c r="D21">
-        <v>0.7572104968023482</v>
+        <v>0.7572104968023478</v>
       </c>
       <c r="E21">
-        <v>0.7807078103586585</v>
+        <v>0.7807078103586582</v>
       </c>
       <c r="F21">
-        <v>0.7853689197122969</v>
+        <v>0.7853689197122971</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9937013291207509</v>
+        <v>0.9937013291207508</v>
       </c>
       <c r="J21">
-        <v>0.7841086830239886</v>
+        <v>0.7841086830239882</v>
       </c>
       <c r="K21">
-        <v>0.7779771788142855</v>
+        <v>0.7779771788142851</v>
       </c>
       <c r="L21">
-        <v>0.8006106767960622</v>
+        <v>0.8006106767960619</v>
       </c>
       <c r="M21">
-        <v>0.8051089999240207</v>
+        <v>0.8051089999240206</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7397242762951306</v>
+        <v>0.7397242762951302</v>
       </c>
       <c r="D22">
-        <v>0.7572104968023482</v>
+        <v>0.7572104968023478</v>
       </c>
       <c r="E22">
-        <v>0.7807078103586585</v>
+        <v>0.7807078103586582</v>
       </c>
       <c r="F22">
-        <v>0.7853689197122969</v>
+        <v>0.7853689197122971</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9937013291207509</v>
+        <v>0.9937013291207508</v>
       </c>
       <c r="J22">
-        <v>0.7841086830239886</v>
+        <v>0.7841086830239882</v>
       </c>
       <c r="K22">
-        <v>0.7779771788142855</v>
+        <v>0.7779771788142851</v>
       </c>
       <c r="L22">
-        <v>0.8006106767960622</v>
+        <v>0.8006106767960619</v>
       </c>
       <c r="M22">
-        <v>0.8051089999240207</v>
+        <v>0.8051089999240206</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7397242762951306</v>
+        <v>0.7397242762951302</v>
       </c>
       <c r="D23">
-        <v>0.7572104968023482</v>
+        <v>0.7572104968023478</v>
       </c>
       <c r="E23">
-        <v>0.7807078103586585</v>
+        <v>0.7807078103586582</v>
       </c>
       <c r="F23">
-        <v>0.7853689197122969</v>
+        <v>0.7853689197122971</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9937013291207509</v>
+        <v>0.9937013291207508</v>
       </c>
       <c r="J23">
-        <v>0.7841086830239886</v>
+        <v>0.7841086830239882</v>
       </c>
       <c r="K23">
-        <v>0.7779771788142855</v>
+        <v>0.7779771788142851</v>
       </c>
       <c r="L23">
-        <v>0.8006106767960622</v>
+        <v>0.8006106767960619</v>
       </c>
       <c r="M23">
-        <v>0.8051089999240207</v>
+        <v>0.8051089999240206</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7397242762951306</v>
+        <v>0.7397242762951302</v>
       </c>
       <c r="D24">
-        <v>0.7572104968023482</v>
+        <v>0.7572104968023478</v>
       </c>
       <c r="E24">
-        <v>0.7807078103586585</v>
+        <v>0.7807078103586582</v>
       </c>
       <c r="F24">
-        <v>0.7853689197122969</v>
+        <v>0.7853689197122971</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9937013291207509</v>
+        <v>0.9937013291207508</v>
       </c>
       <c r="J24">
-        <v>0.7841086830239886</v>
+        <v>0.7841086830239882</v>
       </c>
       <c r="K24">
-        <v>0.7779771788142855</v>
+        <v>0.7779771788142851</v>
       </c>
       <c r="L24">
-        <v>0.8006106767960622</v>
+        <v>0.8006106767960619</v>
       </c>
       <c r="M24">
-        <v>0.8051089999240207</v>
+        <v>0.8051089999240206</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7397242762951306</v>
+        <v>0.7397242762951302</v>
       </c>
       <c r="D25">
-        <v>0.7572104968023482</v>
+        <v>0.7572104968023478</v>
       </c>
       <c r="E25">
-        <v>0.7807078103586585</v>
+        <v>0.7807078103586582</v>
       </c>
       <c r="F25">
-        <v>0.7853689197122969</v>
+        <v>0.7853689197122971</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9937013291207509</v>
+        <v>0.9937013291207508</v>
       </c>
       <c r="J25">
-        <v>0.7841086830239886</v>
+        <v>0.7841086830239882</v>
       </c>
       <c r="K25">
-        <v>0.7779771788142855</v>
+        <v>0.7779771788142851</v>
       </c>
       <c r="L25">
-        <v>0.8006106767960622</v>
+        <v>0.8006106767960619</v>
       </c>
       <c r="M25">
-        <v>0.8051089999240207</v>
+        <v>0.8051089999240206</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_35/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.886631235687519</v>
+        <v>0.891619988484323</v>
       </c>
       <c r="D2">
-        <v>0.8964646291049051</v>
+        <v>0.9013745992867808</v>
       </c>
       <c r="E2">
-        <v>0.9060552711855554</v>
+        <v>0.9103455914413422</v>
       </c>
       <c r="F2">
-        <v>0.9141248556809565</v>
+        <v>0.9179608808063401</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025314736670694</v>
+        <v>1.026297492445537</v>
       </c>
       <c r="J2">
-        <v>0.9128262617728927</v>
+        <v>0.9176077085328114</v>
       </c>
       <c r="K2">
-        <v>0.909583341485712</v>
+        <v>0.9144034179644227</v>
       </c>
       <c r="L2">
-        <v>0.9189995726202491</v>
+        <v>0.9232134144184938</v>
       </c>
       <c r="M2">
-        <v>0.9269260807293445</v>
+        <v>0.9306952333793143</v>
+      </c>
+      <c r="N2">
+        <v>0.9189108167300016</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9112201551826226</v>
+        <v>0.9159920747591178</v>
       </c>
       <c r="D3">
-        <v>0.9199531763796625</v>
+        <v>0.9246648120006045</v>
       </c>
       <c r="E3">
-        <v>0.927245213742008</v>
+        <v>0.9313567407039477</v>
       </c>
       <c r="F3">
-        <v>0.9361545683751294</v>
+        <v>0.9398027579975459</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03064634367479</v>
+        <v>1.031585051491679</v>
       </c>
       <c r="J3">
-        <v>0.9344629744349233</v>
+        <v>0.9390679603977503</v>
       </c>
       <c r="K3">
-        <v>0.9317242273496247</v>
+        <v>0.9363618948762209</v>
       </c>
       <c r="L3">
-        <v>0.9389021937789315</v>
+        <v>0.9429504079370368</v>
       </c>
       <c r="M3">
-        <v>0.9476752502625099</v>
+        <v>0.9512685776511345</v>
+      </c>
+      <c r="N3">
+        <v>0.9404015446141158</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9255364536147557</v>
+        <v>0.9302052934912894</v>
       </c>
       <c r="D4">
-        <v>0.9336461315588541</v>
+        <v>0.9382638349704966</v>
       </c>
       <c r="E4">
-        <v>0.9395996829564767</v>
+        <v>0.9436264163451281</v>
       </c>
       <c r="F4">
-        <v>0.9490182878147335</v>
+        <v>0.9525761030543084</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033728399882847</v>
+        <v>1.03464611712676</v>
       </c>
       <c r="J4">
-        <v>0.9470578328836604</v>
+        <v>0.9515801077016702</v>
       </c>
       <c r="K4">
-        <v>0.9446173475220055</v>
+        <v>0.9491692616873383</v>
       </c>
       <c r="L4">
-        <v>0.9504862300181262</v>
+        <v>0.9544564614890247</v>
       </c>
       <c r="M4">
-        <v>0.9597736221526153</v>
+        <v>0.9632827227119319</v>
+      </c>
+      <c r="N4">
+        <v>0.9529314606023707</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9312450989927823</v>
+        <v>0.9358768945951391</v>
       </c>
       <c r="D5">
-        <v>0.9391095152478895</v>
+        <v>0.9436935413053466</v>
       </c>
       <c r="E5">
-        <v>0.9445290964602596</v>
+        <v>0.948525409084683</v>
       </c>
       <c r="F5">
-        <v>0.9541541623469074</v>
+        <v>0.9576792784426633</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034950956677867</v>
+        <v>1.035861129508443</v>
       </c>
       <c r="J5">
-        <v>0.952078688809726</v>
+        <v>0.9565715012612136</v>
       </c>
       <c r="K5">
-        <v>0.9497582432874975</v>
+        <v>0.9542795543516116</v>
       </c>
       <c r="L5">
-        <v>0.9551037606347539</v>
+        <v>0.9590461411013107</v>
       </c>
       <c r="M5">
-        <v>0.9645998930706848</v>
+        <v>0.9680786008542516</v>
+      </c>
+      <c r="N5">
+        <v>0.957929942513289</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9321870796521505</v>
+        <v>0.9368129701476274</v>
       </c>
       <c r="D6">
-        <v>0.9400111997015802</v>
+        <v>0.9445898619700981</v>
       </c>
       <c r="E6">
-        <v>0.9453426516067042</v>
+        <v>0.9493341181294787</v>
       </c>
       <c r="F6">
-        <v>0.9550019509443406</v>
+        <v>0.9585218423445011</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035152285048058</v>
+        <v>1.036061255485121</v>
       </c>
       <c r="J6">
-        <v>0.9529070801958617</v>
+        <v>0.9573952112741987</v>
       </c>
       <c r="K6">
-        <v>0.9506065070603662</v>
+        <v>0.9551229521789761</v>
       </c>
       <c r="L6">
-        <v>0.9558655850659064</v>
+        <v>0.9598035360993618</v>
       </c>
       <c r="M6">
-        <v>0.9653963412238765</v>
+        <v>0.9688701975619395</v>
+      </c>
+      <c r="N6">
+        <v>0.9587548222889736</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9256138734939267</v>
+        <v>0.9302821962309874</v>
       </c>
       <c r="D7">
-        <v>0.9337202129641722</v>
+        <v>0.9383374459133065</v>
       </c>
       <c r="E7">
-        <v>0.9396665239388925</v>
+        <v>0.9436928324321265</v>
       </c>
       <c r="F7">
-        <v>0.9490879168227369</v>
+        <v>0.9526452764570951</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033745007019909</v>
+        <v>1.034662618933397</v>
       </c>
       <c r="J7">
-        <v>0.9471259313303663</v>
+        <v>0.9516477937836272</v>
       </c>
       <c r="K7">
-        <v>0.944687069522018</v>
+        <v>0.9492385555911025</v>
       </c>
       <c r="L7">
-        <v>0.9505488596213748</v>
+        <v>0.9545187015734935</v>
       </c>
       <c r="M7">
-        <v>0.9598390697146538</v>
+        <v>0.9633477464699097</v>
+      </c>
+      <c r="N7">
+        <v>0.9529992428063276</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8953236188828425</v>
+        <v>0.9002293160335431</v>
       </c>
       <c r="D8">
-        <v>0.9047635068915248</v>
+        <v>0.9095974128654604</v>
       </c>
       <c r="E8">
-        <v>0.9135414505976763</v>
+        <v>0.9177632377064286</v>
       </c>
       <c r="F8">
-        <v>0.9219022446987366</v>
+        <v>0.9256666295444895</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027203578147533</v>
+        <v>1.028169484237654</v>
       </c>
       <c r="J8">
-        <v>0.9204750078900917</v>
+        <v>0.9251885466320361</v>
       </c>
       <c r="K8">
-        <v>0.9174092509539689</v>
+        <v>0.9221591991457992</v>
       </c>
       <c r="L8">
-        <v>0.9260355849683327</v>
+        <v>0.9301857870494727</v>
       </c>
       <c r="M8">
-        <v>0.9342554325396917</v>
+        <v>0.9379574267951033</v>
+      </c>
+      <c r="N8">
+        <v>0.9265024204888632</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8239529342556003</v>
+        <v>0.8298453878761261</v>
       </c>
       <c r="D9">
-        <v>0.8367925972647087</v>
+        <v>0.8425338776710952</v>
       </c>
       <c r="E9">
-        <v>0.8522623629369719</v>
+        <v>0.8572995448800826</v>
       </c>
       <c r="F9">
-        <v>0.8584712383546453</v>
+        <v>0.8630720683317323</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.011672783603542</v>
+        <v>1.012837043349871</v>
       </c>
       <c r="J9">
-        <v>0.8577294579316641</v>
+        <v>0.8632627130694513</v>
       </c>
       <c r="K9">
-        <v>0.8532355559318112</v>
+        <v>0.8588291689569603</v>
       </c>
       <c r="L9">
-        <v>0.8683135498638669</v>
+        <v>0.8732272664606212</v>
       </c>
       <c r="M9">
-        <v>0.8743705199488552</v>
+        <v>0.8788606782329034</v>
+      </c>
+      <c r="N9">
+        <v>0.8644886451396271</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7397242762951302</v>
+        <v>0.7490187057474423</v>
       </c>
       <c r="D10">
-        <v>0.7572104968023478</v>
+        <v>0.7660938255781016</v>
       </c>
       <c r="E10">
-        <v>0.7807078103586582</v>
+        <v>0.7885534851190756</v>
       </c>
       <c r="F10">
-        <v>0.7853689197122971</v>
+        <v>0.7927683194010978</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.9937013291207508</v>
+        <v>0.9955347411395068</v>
       </c>
       <c r="J10">
-        <v>0.7841086830239882</v>
+        <v>0.7925253089128086</v>
       </c>
       <c r="K10">
-        <v>0.7779771788142851</v>
+        <v>0.7865251706791554</v>
       </c>
       <c r="L10">
-        <v>0.8006106767960619</v>
+        <v>0.8081838894256437</v>
       </c>
       <c r="M10">
-        <v>0.8051089999240206</v>
+        <v>0.8122554517862279</v>
+      </c>
+      <c r="N10">
+        <v>0.7936507857553883</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7397242762951302</v>
+        <v>0.7490187057474423</v>
       </c>
       <c r="D11">
-        <v>0.7572104968023478</v>
+        <v>0.7660938255781016</v>
       </c>
       <c r="E11">
-        <v>0.7807078103586582</v>
+        <v>0.7885534851190756</v>
       </c>
       <c r="F11">
-        <v>0.7853689197122971</v>
+        <v>0.7927683194010978</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9937013291207508</v>
+        <v>0.9955347411395068</v>
       </c>
       <c r="J11">
-        <v>0.7841086830239882</v>
+        <v>0.7925253089128086</v>
       </c>
       <c r="K11">
-        <v>0.7779771788142851</v>
+        <v>0.7865251706791554</v>
       </c>
       <c r="L11">
-        <v>0.8006106767960619</v>
+        <v>0.8081838894256437</v>
       </c>
       <c r="M11">
-        <v>0.8051089999240206</v>
+        <v>0.8122554517862279</v>
+      </c>
+      <c r="N11">
+        <v>0.7936507857553883</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7397242762951302</v>
+        <v>0.7490187057474423</v>
       </c>
       <c r="D12">
-        <v>0.7572104968023478</v>
+        <v>0.7660938255781016</v>
       </c>
       <c r="E12">
-        <v>0.7807078103586582</v>
+        <v>0.7885534851190756</v>
       </c>
       <c r="F12">
-        <v>0.7853689197122971</v>
+        <v>0.7927683194010978</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9937013291207508</v>
+        <v>0.9955347411395068</v>
       </c>
       <c r="J12">
-        <v>0.7841086830239882</v>
+        <v>0.7925253089128086</v>
       </c>
       <c r="K12">
-        <v>0.7779771788142851</v>
+        <v>0.7865251706791554</v>
       </c>
       <c r="L12">
-        <v>0.8006106767960619</v>
+        <v>0.8081838894256437</v>
       </c>
       <c r="M12">
-        <v>0.8051089999240206</v>
+        <v>0.8122554517862279</v>
+      </c>
+      <c r="N12">
+        <v>0.7936507857553883</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7397242762951302</v>
+        <v>0.7490187057474423</v>
       </c>
       <c r="D13">
-        <v>0.7572104968023478</v>
+        <v>0.7660938255781016</v>
       </c>
       <c r="E13">
-        <v>0.7807078103586582</v>
+        <v>0.7885534851190756</v>
       </c>
       <c r="F13">
-        <v>0.7853689197122971</v>
+        <v>0.7927683194010978</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9937013291207508</v>
+        <v>0.9955347411395068</v>
       </c>
       <c r="J13">
-        <v>0.7841086830239882</v>
+        <v>0.7925253089128086</v>
       </c>
       <c r="K13">
-        <v>0.7779771788142851</v>
+        <v>0.7865251706791554</v>
       </c>
       <c r="L13">
-        <v>0.8006106767960619</v>
+        <v>0.8081838894256437</v>
       </c>
       <c r="M13">
-        <v>0.8051089999240206</v>
+        <v>0.8122554517862279</v>
+      </c>
+      <c r="N13">
+        <v>0.7936507857553883</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7397242762951302</v>
+        <v>0.7490187057474423</v>
       </c>
       <c r="D14">
-        <v>0.7572104968023478</v>
+        <v>0.7660938255781016</v>
       </c>
       <c r="E14">
-        <v>0.7807078103586582</v>
+        <v>0.7885534851190756</v>
       </c>
       <c r="F14">
-        <v>0.7853689197122971</v>
+        <v>0.7927683194010978</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9937013291207508</v>
+        <v>0.9955347411395068</v>
       </c>
       <c r="J14">
-        <v>0.7841086830239882</v>
+        <v>0.7925253089128086</v>
       </c>
       <c r="K14">
-        <v>0.7779771788142851</v>
+        <v>0.7865251706791554</v>
       </c>
       <c r="L14">
-        <v>0.8006106767960619</v>
+        <v>0.8081838894256437</v>
       </c>
       <c r="M14">
-        <v>0.8051089999240206</v>
+        <v>0.8122554517862279</v>
+      </c>
+      <c r="N14">
+        <v>0.7936507857553883</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7397242762951302</v>
+        <v>0.7490187057474423</v>
       </c>
       <c r="D15">
-        <v>0.7572104968023478</v>
+        <v>0.7660938255781016</v>
       </c>
       <c r="E15">
-        <v>0.7807078103586582</v>
+        <v>0.7885534851190756</v>
       </c>
       <c r="F15">
-        <v>0.7853689197122971</v>
+        <v>0.7927683194010978</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9937013291207508</v>
+        <v>0.9955347411395068</v>
       </c>
       <c r="J15">
-        <v>0.7841086830239882</v>
+        <v>0.7925253089128086</v>
       </c>
       <c r="K15">
-        <v>0.7779771788142851</v>
+        <v>0.7865251706791554</v>
       </c>
       <c r="L15">
-        <v>0.8006106767960619</v>
+        <v>0.8081838894256437</v>
       </c>
       <c r="M15">
-        <v>0.8051089999240206</v>
+        <v>0.8122554517862279</v>
+      </c>
+      <c r="N15">
+        <v>0.7936507857553883</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7397242762951302</v>
+        <v>0.7490187057474423</v>
       </c>
       <c r="D16">
-        <v>0.7572104968023478</v>
+        <v>0.7660938255781016</v>
       </c>
       <c r="E16">
-        <v>0.7807078103586582</v>
+        <v>0.7885534851190756</v>
       </c>
       <c r="F16">
-        <v>0.7853689197122971</v>
+        <v>0.7927683194010978</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.9937013291207508</v>
+        <v>0.9955347411395068</v>
       </c>
       <c r="J16">
-        <v>0.7841086830239882</v>
+        <v>0.7925253089128086</v>
       </c>
       <c r="K16">
-        <v>0.7779771788142851</v>
+        <v>0.7865251706791554</v>
       </c>
       <c r="L16">
-        <v>0.8006106767960619</v>
+        <v>0.8081838894256437</v>
       </c>
       <c r="M16">
-        <v>0.8051089999240206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8122554517862279</v>
+      </c>
+      <c r="N16">
+        <v>0.7936507857553883</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7397242762951302</v>
+        <v>0.7490187057474423</v>
       </c>
       <c r="D17">
-        <v>0.7572104968023478</v>
+        <v>0.7660938255781016</v>
       </c>
       <c r="E17">
-        <v>0.7807078103586582</v>
+        <v>0.7885534851190756</v>
       </c>
       <c r="F17">
-        <v>0.7853689197122971</v>
+        <v>0.7927683194010978</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.9937013291207508</v>
+        <v>0.9955347411395068</v>
       </c>
       <c r="J17">
-        <v>0.7841086830239882</v>
+        <v>0.7925253089128086</v>
       </c>
       <c r="K17">
-        <v>0.7779771788142851</v>
+        <v>0.7865251706791554</v>
       </c>
       <c r="L17">
-        <v>0.8006106767960619</v>
+        <v>0.8081838894256437</v>
       </c>
       <c r="M17">
-        <v>0.8051089999240206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8122554517862279</v>
+      </c>
+      <c r="N17">
+        <v>0.7936507857553883</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7397242762951302</v>
+        <v>0.7490187057474423</v>
       </c>
       <c r="D18">
-        <v>0.7572104968023478</v>
+        <v>0.7660938255781016</v>
       </c>
       <c r="E18">
-        <v>0.7807078103586582</v>
+        <v>0.7885534851190756</v>
       </c>
       <c r="F18">
-        <v>0.7853689197122971</v>
+        <v>0.7927683194010978</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0.9937013291207508</v>
+        <v>0.9955347411395068</v>
       </c>
       <c r="J18">
-        <v>0.7841086830239882</v>
+        <v>0.7925253089128086</v>
       </c>
       <c r="K18">
-        <v>0.7779771788142851</v>
+        <v>0.7865251706791554</v>
       </c>
       <c r="L18">
-        <v>0.8006106767960619</v>
+        <v>0.8081838894256437</v>
       </c>
       <c r="M18">
-        <v>0.8051089999240206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8122554517862279</v>
+      </c>
+      <c r="N18">
+        <v>0.7936507857553883</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7397242762951302</v>
+        <v>0.7490187057474423</v>
       </c>
       <c r="D19">
-        <v>0.7572104968023478</v>
+        <v>0.7660938255781016</v>
       </c>
       <c r="E19">
-        <v>0.7807078103586582</v>
+        <v>0.7885534851190756</v>
       </c>
       <c r="F19">
-        <v>0.7853689197122971</v>
+        <v>0.7927683194010978</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0.9937013291207508</v>
+        <v>0.9955347411395068</v>
       </c>
       <c r="J19">
-        <v>0.7841086830239882</v>
+        <v>0.7925253089128086</v>
       </c>
       <c r="K19">
-        <v>0.7779771788142851</v>
+        <v>0.7865251706791554</v>
       </c>
       <c r="L19">
-        <v>0.8006106767960619</v>
+        <v>0.8081838894256437</v>
       </c>
       <c r="M19">
-        <v>0.8051089999240206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8122554517862279</v>
+      </c>
+      <c r="N19">
+        <v>0.7936507857553883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7397242762951302</v>
+        <v>0.7490187057474423</v>
       </c>
       <c r="D20">
-        <v>0.7572104968023478</v>
+        <v>0.7660938255781016</v>
       </c>
       <c r="E20">
-        <v>0.7807078103586582</v>
+        <v>0.7885534851190756</v>
       </c>
       <c r="F20">
-        <v>0.7853689197122971</v>
+        <v>0.7927683194010978</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0.9937013291207508</v>
+        <v>0.9955347411395068</v>
       </c>
       <c r="J20">
-        <v>0.7841086830239882</v>
+        <v>0.7925253089128086</v>
       </c>
       <c r="K20">
-        <v>0.7779771788142851</v>
+        <v>0.7865251706791554</v>
       </c>
       <c r="L20">
-        <v>0.8006106767960619</v>
+        <v>0.8081838894256437</v>
       </c>
       <c r="M20">
-        <v>0.8051089999240206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8122554517862279</v>
+      </c>
+      <c r="N20">
+        <v>0.7936507857553883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7397242762951302</v>
+        <v>0.7490187057474423</v>
       </c>
       <c r="D21">
-        <v>0.7572104968023478</v>
+        <v>0.7660938255781016</v>
       </c>
       <c r="E21">
-        <v>0.7807078103586582</v>
+        <v>0.7885534851190756</v>
       </c>
       <c r="F21">
-        <v>0.7853689197122971</v>
+        <v>0.7927683194010978</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9937013291207508</v>
+        <v>0.9955347411395068</v>
       </c>
       <c r="J21">
-        <v>0.7841086830239882</v>
+        <v>0.7925253089128086</v>
       </c>
       <c r="K21">
-        <v>0.7779771788142851</v>
+        <v>0.7865251706791554</v>
       </c>
       <c r="L21">
-        <v>0.8006106767960619</v>
+        <v>0.8081838894256437</v>
       </c>
       <c r="M21">
-        <v>0.8051089999240206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8122554517862279</v>
+      </c>
+      <c r="N21">
+        <v>0.7936507857553883</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7397242762951302</v>
+        <v>0.7490187057474423</v>
       </c>
       <c r="D22">
-        <v>0.7572104968023478</v>
+        <v>0.7660938255781016</v>
       </c>
       <c r="E22">
-        <v>0.7807078103586582</v>
+        <v>0.7885534851190756</v>
       </c>
       <c r="F22">
-        <v>0.7853689197122971</v>
+        <v>0.7927683194010978</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9937013291207508</v>
+        <v>0.9955347411395068</v>
       </c>
       <c r="J22">
-        <v>0.7841086830239882</v>
+        <v>0.7925253089128086</v>
       </c>
       <c r="K22">
-        <v>0.7779771788142851</v>
+        <v>0.7865251706791554</v>
       </c>
       <c r="L22">
-        <v>0.8006106767960619</v>
+        <v>0.8081838894256437</v>
       </c>
       <c r="M22">
-        <v>0.8051089999240206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8122554517862279</v>
+      </c>
+      <c r="N22">
+        <v>0.7936507857553883</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7397242762951302</v>
+        <v>0.7490187057474423</v>
       </c>
       <c r="D23">
-        <v>0.7572104968023478</v>
+        <v>0.7660938255781016</v>
       </c>
       <c r="E23">
-        <v>0.7807078103586582</v>
+        <v>0.7885534851190756</v>
       </c>
       <c r="F23">
-        <v>0.7853689197122971</v>
+        <v>0.7927683194010978</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9937013291207508</v>
+        <v>0.9955347411395068</v>
       </c>
       <c r="J23">
-        <v>0.7841086830239882</v>
+        <v>0.7925253089128086</v>
       </c>
       <c r="K23">
-        <v>0.7779771788142851</v>
+        <v>0.7865251706791554</v>
       </c>
       <c r="L23">
-        <v>0.8006106767960619</v>
+        <v>0.8081838894256437</v>
       </c>
       <c r="M23">
-        <v>0.8051089999240206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8122554517862279</v>
+      </c>
+      <c r="N23">
+        <v>0.7936507857553883</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7397242762951302</v>
+        <v>0.7490187057474423</v>
       </c>
       <c r="D24">
-        <v>0.7572104968023478</v>
+        <v>0.7660938255781016</v>
       </c>
       <c r="E24">
-        <v>0.7807078103586582</v>
+        <v>0.7885534851190756</v>
       </c>
       <c r="F24">
-        <v>0.7853689197122971</v>
+        <v>0.7927683194010978</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9937013291207508</v>
+        <v>0.9955347411395068</v>
       </c>
       <c r="J24">
-        <v>0.7841086830239882</v>
+        <v>0.7925253089128086</v>
       </c>
       <c r="K24">
-        <v>0.7779771788142851</v>
+        <v>0.7865251706791554</v>
       </c>
       <c r="L24">
-        <v>0.8006106767960619</v>
+        <v>0.8081838894256437</v>
       </c>
       <c r="M24">
-        <v>0.8051089999240206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8122554517862279</v>
+      </c>
+      <c r="N24">
+        <v>0.7936507857553883</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7397242762951302</v>
+        <v>0.7490187057474423</v>
       </c>
       <c r="D25">
-        <v>0.7572104968023478</v>
+        <v>0.7660938255781016</v>
       </c>
       <c r="E25">
-        <v>0.7807078103586582</v>
+        <v>0.7885534851190756</v>
       </c>
       <c r="F25">
-        <v>0.7853689197122971</v>
+        <v>0.7927683194010978</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9937013291207508</v>
+        <v>0.9955347411395068</v>
       </c>
       <c r="J25">
-        <v>0.7841086830239882</v>
+        <v>0.7925253089128086</v>
       </c>
       <c r="K25">
-        <v>0.7779771788142851</v>
+        <v>0.7865251706791554</v>
       </c>
       <c r="L25">
-        <v>0.8006106767960619</v>
+        <v>0.8081838894256437</v>
       </c>
       <c r="M25">
-        <v>0.8051089999240206</v>
+        <v>0.8122554517862279</v>
+      </c>
+      <c r="N25">
+        <v>0.7936507857553883</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_35/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.01265273322767</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.028104712813109</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.026854336440843</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.036460240642049</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.054254625208147</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.034461478686248</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.039185912036539</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.037951807739507</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.047433962206706</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.015335383877584</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.016930736489019</v>
+      </c>
+      <c r="D3">
+        <v>1.031829085123144</v>
+      </c>
+      <c r="E3">
+        <v>1.030409672748625</v>
+      </c>
+      <c r="F3">
+        <v>1.040360835575142</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.055373427019577</v>
+      </c>
+      <c r="J3">
+        <v>1.036970257385512</v>
+      </c>
+      <c r="K3">
+        <v>1.042070281625892</v>
+      </c>
+      <c r="L3">
+        <v>1.040667697286499</v>
+      </c>
+      <c r="M3">
+        <v>1.050502078813736</v>
+      </c>
+      <c r="N3">
+        <v>1.016170369160932</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.01964355148776</v>
+      </c>
+      <c r="D4">
+        <v>1.034195490905235</v>
+      </c>
+      <c r="E4">
+        <v>1.032669689173524</v>
+      </c>
+      <c r="F4">
+        <v>1.042839353603248</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.056067454760312</v>
+      </c>
+      <c r="J4">
+        <v>1.038557779607094</v>
+      </c>
+      <c r="K4">
+        <v>1.043898006661918</v>
+      </c>
+      <c r="L4">
+        <v>1.042389182422826</v>
+      </c>
+      <c r="M4">
+        <v>1.052446840985913</v>
+      </c>
+      <c r="N4">
+        <v>1.016698701975338</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.020771204211776</v>
+      </c>
+      <c r="D5">
+        <v>1.035180233809911</v>
+      </c>
+      <c r="E5">
+        <v>1.033610398887766</v>
+      </c>
+      <c r="F5">
+        <v>1.04387078524897</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.056352188092431</v>
+      </c>
+      <c r="J5">
+        <v>1.039216832150186</v>
+      </c>
+      <c r="K5">
+        <v>1.044657390502091</v>
+      </c>
+      <c r="L5">
+        <v>1.043104549574552</v>
+      </c>
+      <c r="M5">
+        <v>1.053254995387355</v>
+      </c>
+      <c r="N5">
+        <v>1.016918026647716</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.020959802830474</v>
+      </c>
+      <c r="D6">
+        <v>1.035344993666267</v>
+      </c>
+      <c r="E6">
+        <v>1.033767805376288</v>
+      </c>
+      <c r="F6">
+        <v>1.044043358791916</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.056399586995572</v>
+      </c>
+      <c r="J6">
+        <v>1.039327007427011</v>
+      </c>
+      <c r="K6">
+        <v>1.044784374507596</v>
+      </c>
+      <c r="L6">
+        <v>1.0432241803787</v>
+      </c>
+      <c r="M6">
+        <v>1.05339014323737</v>
+      </c>
+      <c r="N6">
+        <v>1.016954690981996</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.019658669031875</v>
+      </c>
+      <c r="D7">
+        <v>1.034208688333489</v>
+      </c>
+      <c r="E7">
+        <v>1.032682295534511</v>
+      </c>
+      <c r="F7">
+        <v>1.042853176610542</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.056071286865808</v>
+      </c>
+      <c r="J7">
+        <v>1.03856661837341</v>
+      </c>
+      <c r="K7">
+        <v>1.0439081885783</v>
+      </c>
+      <c r="L7">
+        <v>1.04239877366936</v>
+      </c>
+      <c r="M7">
+        <v>1.052457676256536</v>
+      </c>
+      <c r="N7">
+        <v>1.016701643452335</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.014110230541485</v>
+      </c>
+      <c r="D8">
+        <v>1.029372590489811</v>
+      </c>
+      <c r="E8">
+        <v>1.028064454966096</v>
+      </c>
+      <c r="F8">
+        <v>1.037788079667423</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.054639000341747</v>
+      </c>
+      <c r="J8">
+        <v>1.035316895080288</v>
+      </c>
+      <c r="K8">
+        <v>1.040168863917162</v>
+      </c>
+      <c r="L8">
+        <v>1.0388772343871</v>
+      </c>
+      <c r="M8">
+        <v>1.048479405463469</v>
+      </c>
+      <c r="N8">
+        <v>1.015620094354666</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>1.0038887703175</v>
+      </c>
+      <c r="D9">
+        <v>1.020502238684349</v>
+      </c>
+      <c r="E9">
+        <v>1.019602657257713</v>
+      </c>
+      <c r="F9">
+        <v>1.028498806927329</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.051880077449792</v>
+      </c>
+      <c r="J9">
+        <v>1.02930494949291</v>
+      </c>
+      <c r="K9">
+        <v>1.033271213969975</v>
+      </c>
+      <c r="L9">
+        <v>1.032385504097833</v>
+      </c>
+      <c r="M9">
+        <v>1.041145833608951</v>
+      </c>
+      <c r="N9">
+        <v>1.013619052314237</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9967451510271149</v>
+      </c>
+      <c r="D10">
+        <v>1.014331732867119</v>
+      </c>
+      <c r="E10">
+        <v>1.013722221726778</v>
+      </c>
+      <c r="F10">
+        <v>1.022037601406061</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.049873874597851</v>
+      </c>
+      <c r="J10">
+        <v>1.025088504594381</v>
+      </c>
+      <c r="K10">
+        <v>1.028446956651572</v>
+      </c>
+      <c r="L10">
+        <v>1.027848059768005</v>
+      </c>
+      <c r="M10">
+        <v>1.03602004257409</v>
+      </c>
+      <c r="N10">
+        <v>1.01221562885533</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9935664174736678</v>
+      </c>
+      <c r="D11">
+        <v>1.011593463928537</v>
+      </c>
+      <c r="E11">
+        <v>1.011114140667722</v>
+      </c>
+      <c r="F11">
+        <v>1.019170492380298</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.048963423908476</v>
+      </c>
+      <c r="J11">
+        <v>1.0232093120559</v>
+      </c>
+      <c r="K11">
+        <v>1.02630000699908</v>
+      </c>
+      <c r="L11">
+        <v>1.025829460726848</v>
+      </c>
+      <c r="M11">
+        <v>1.033739715764945</v>
+      </c>
+      <c r="N11">
+        <v>1.011590175831334</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9923721741573988</v>
+      </c>
+      <c r="D12">
+        <v>1.010565876883339</v>
+      </c>
+      <c r="E12">
+        <v>1.010135635613454</v>
+      </c>
+      <c r="F12">
+        <v>1.018094579636516</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.04861877144477</v>
+      </c>
+      <c r="J12">
+        <v>1.022502902726972</v>
+      </c>
+      <c r="K12">
+        <v>1.025493412815857</v>
+      </c>
+      <c r="L12">
+        <v>1.025071195386437</v>
+      </c>
+      <c r="M12">
+        <v>1.032883137067378</v>
+      </c>
+      <c r="N12">
+        <v>1.011355067596629</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9926289665519582</v>
+      </c>
+      <c r="D13">
+        <v>1.010786779994893</v>
+      </c>
+      <c r="E13">
+        <v>1.010345977092958</v>
+      </c>
+      <c r="F13">
+        <v>1.018325870375884</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.048692996696132</v>
+      </c>
+      <c r="J13">
+        <v>1.022654815861815</v>
+      </c>
+      <c r="K13">
+        <v>1.025666849573633</v>
+      </c>
+      <c r="L13">
+        <v>1.025234235375885</v>
+      </c>
+      <c r="M13">
+        <v>1.033067316021712</v>
+      </c>
+      <c r="N13">
+        <v>1.011405627226091</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.049999999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.9934679808172445</v>
+      </c>
+      <c r="D14">
+        <v>1.011508739871332</v>
+      </c>
+      <c r="E14">
+        <v>1.011033458751398</v>
+      </c>
+      <c r="F14">
+        <v>1.019081783407766</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.048935068015935</v>
+      </c>
+      <c r="J14">
+        <v>1.023151093456029</v>
+      </c>
+      <c r="K14">
+        <v>1.026233522185283</v>
+      </c>
+      <c r="L14">
+        <v>1.025766957280716</v>
+      </c>
+      <c r="M14">
+        <v>1.033669108357961</v>
+      </c>
+      <c r="N14">
+        <v>1.011570799281661</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.993983112699203</v>
+      </c>
+      <c r="D15">
+        <v>1.011952160150575</v>
+      </c>
+      <c r="E15">
+        <v>1.011455732957929</v>
+      </c>
+      <c r="F15">
+        <v>1.019546060512328</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.049083352595822</v>
+      </c>
+      <c r="J15">
+        <v>1.023455742940235</v>
+      </c>
+      <c r="K15">
+        <v>1.026581446626471</v>
+      </c>
+      <c r="L15">
+        <v>1.026094051091586</v>
+      </c>
+      <c r="M15">
+        <v>1.034038611994604</v>
+      </c>
+      <c r="N15">
+        <v>1.011672194233363</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9969542551479208</v>
+      </c>
+      <c r="D16">
+        <v>1.014512022156184</v>
+      </c>
+      <c r="E16">
+        <v>1.013893970460895</v>
+      </c>
+      <c r="F16">
+        <v>1.022226376960283</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.049933401964804</v>
+      </c>
+      <c r="J16">
+        <v>1.025212063859291</v>
+      </c>
+      <c r="K16">
+        <v>1.028588186313787</v>
+      </c>
+      <c r="L16">
+        <v>1.027980861266047</v>
+      </c>
+      <c r="M16">
+        <v>1.036170063134847</v>
+      </c>
+      <c r="N16">
+        <v>1.012256753944773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9987946212356126</v>
+      </c>
+      <c r="D17">
+        <v>1.016099638436207</v>
+      </c>
+      <c r="E17">
+        <v>1.015406546877422</v>
+      </c>
+      <c r="F17">
+        <v>1.023888741276892</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.050455301802809</v>
+      </c>
+      <c r="J17">
+        <v>1.026299199307791</v>
+      </c>
+      <c r="K17">
+        <v>1.02983115084732</v>
+      </c>
+      <c r="L17">
+        <v>1.029149730398942</v>
+      </c>
+      <c r="M17">
+        <v>1.037490489529073</v>
+      </c>
+      <c r="N17">
+        <v>1.012618596183765</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9998598740940063</v>
+      </c>
+      <c r="D18">
+        <v>1.01701929674284</v>
+      </c>
+      <c r="E18">
+        <v>1.016282875614927</v>
+      </c>
+      <c r="F18">
+        <v>1.024851714394509</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.050755702769769</v>
+      </c>
+      <c r="J18">
+        <v>1.026928176262385</v>
+      </c>
+      <c r="K18">
+        <v>1.030550582217582</v>
+      </c>
+      <c r="L18">
+        <v>1.02982634237666</v>
+      </c>
+      <c r="M18">
+        <v>1.038254833273416</v>
+      </c>
+      <c r="N18">
+        <v>1.012827947336788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>1.000221726429175</v>
+      </c>
+      <c r="D19">
+        <v>1.017331810314833</v>
+      </c>
+      <c r="E19">
+        <v>1.016580688502558</v>
+      </c>
+      <c r="F19">
+        <v>1.025178949632783</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.050857456621277</v>
+      </c>
+      <c r="J19">
+        <v>1.027141781558193</v>
+      </c>
+      <c r="K19">
+        <v>1.0307949570439</v>
+      </c>
+      <c r="L19">
+        <v>1.030056183761453</v>
+      </c>
+      <c r="M19">
+        <v>1.038514476880144</v>
+      </c>
+      <c r="N19">
+        <v>1.012899044899258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9985980204299728</v>
+      </c>
+      <c r="D20">
+        <v>1.015929964745709</v>
+      </c>
+      <c r="E20">
+        <v>1.015244878503068</v>
+      </c>
+      <c r="F20">
+        <v>1.023711077415546</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.050399723503645</v>
+      </c>
+      <c r="J20">
+        <v>1.026183093218234</v>
+      </c>
+      <c r="K20">
+        <v>1.029698371372188</v>
+      </c>
+      <c r="L20">
+        <v>1.029024859164997</v>
+      </c>
+      <c r="M20">
+        <v>1.037349427178631</v>
+      </c>
+      <c r="N20">
+        <v>1.012579951156717</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9932212908973871</v>
+      </c>
+      <c r="D21">
+        <v>1.011296433907744</v>
+      </c>
+      <c r="E21">
+        <v>1.0108312854688</v>
+      </c>
+      <c r="F21">
+        <v>1.01885949222009</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.048863964319658</v>
+      </c>
+      <c r="J21">
+        <v>1.023005186821499</v>
+      </c>
+      <c r="K21">
+        <v>1.026066906411659</v>
+      </c>
+      <c r="L21">
+        <v>1.025610320856438</v>
+      </c>
+      <c r="M21">
+        <v>1.033492163076676</v>
+      </c>
+      <c r="N21">
+        <v>1.011522238158881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9897621364375335</v>
+      </c>
+      <c r="D22">
+        <v>1.008322291759795</v>
+      </c>
+      <c r="E22">
+        <v>1.007999637604871</v>
+      </c>
+      <c r="F22">
+        <v>1.015745525999463</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.047860827246364</v>
+      </c>
+      <c r="J22">
+        <v>1.02095835043349</v>
+      </c>
+      <c r="K22">
+        <v>1.023730665806836</v>
+      </c>
+      <c r="L22">
+        <v>1.023414268580546</v>
+      </c>
+      <c r="M22">
+        <v>1.031011383825346</v>
+      </c>
+      <c r="N22">
+        <v>1.010841021979542</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9916035865645738</v>
+      </c>
+      <c r="D23">
+        <v>1.009904883536584</v>
+      </c>
+      <c r="E23">
+        <v>1.009506278837141</v>
+      </c>
+      <c r="F23">
+        <v>1.017402507574737</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.048396237521706</v>
+      </c>
+      <c r="J23">
+        <v>1.02204816698508</v>
+      </c>
+      <c r="K23">
+        <v>1.024974316792811</v>
+      </c>
+      <c r="L23">
+        <v>1.024583232909637</v>
+      </c>
+      <c r="M23">
+        <v>1.032331908044036</v>
+      </c>
+      <c r="N23">
+        <v>1.011203723886222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9986868811676295</v>
+      </c>
+      <c r="D24">
+        <v>1.016006652636724</v>
+      </c>
+      <c r="E24">
+        <v>1.015317947779448</v>
+      </c>
+      <c r="F24">
+        <v>1.023791376598205</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.050424849335886</v>
+      </c>
+      <c r="J24">
+        <v>1.0262355723916</v>
+      </c>
+      <c r="K24">
+        <v>1.029758385881571</v>
+      </c>
+      <c r="L24">
+        <v>1.029081299049053</v>
+      </c>
+      <c r="M24">
+        <v>1.037413185195234</v>
+      </c>
+      <c r="N24">
+        <v>1.012597418442301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>1.006586952861801</v>
+      </c>
+      <c r="D25">
+        <v>1.022838984556225</v>
+      </c>
+      <c r="E25">
+        <v>1.021830785353778</v>
+      </c>
+      <c r="F25">
+        <v>1.030945784560587</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.052622059448222</v>
+      </c>
+      <c r="J25">
+        <v>1.03089465517063</v>
+      </c>
+      <c r="K25">
+        <v>1.035092806275063</v>
+      </c>
+      <c r="L25">
+        <v>1.034099401788566</v>
+      </c>
+      <c r="M25">
+        <v>1.043081976024341</v>
+      </c>
+      <c r="N25">
+        <v>1.014148186532982</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_35/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01265273322767</v>
+        <v>1.041269294343564</v>
       </c>
       <c r="D2">
-        <v>1.028104712813109</v>
+        <v>1.051451163315476</v>
       </c>
       <c r="E2">
-        <v>1.026854336440843</v>
+        <v>1.049653614489217</v>
       </c>
       <c r="F2">
-        <v>1.036460240642049</v>
+        <v>1.060723645518419</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054254625208147</v>
+        <v>1.039365580196626</v>
       </c>
       <c r="J2">
-        <v>1.034461478686248</v>
+        <v>1.046351413287061</v>
       </c>
       <c r="K2">
-        <v>1.039185912036539</v>
+        <v>1.054202629194361</v>
       </c>
       <c r="L2">
-        <v>1.037951807739507</v>
+        <v>1.052410073043047</v>
       </c>
       <c r="M2">
-        <v>1.047433962206706</v>
+        <v>1.063449648228745</v>
       </c>
       <c r="N2">
-        <v>1.015335383877584</v>
+        <v>1.019361217592652</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.016930736489019</v>
+        <v>1.042174561338871</v>
       </c>
       <c r="D3">
-        <v>1.031829085123144</v>
+        <v>1.052288117105676</v>
       </c>
       <c r="E3">
-        <v>1.030409672748625</v>
+        <v>1.050455776351999</v>
       </c>
       <c r="F3">
-        <v>1.040360835575142</v>
+        <v>1.061603838558651</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055373427019577</v>
+        <v>1.039510833925993</v>
       </c>
       <c r="J3">
-        <v>1.036970257385512</v>
+        <v>1.046902859859393</v>
       </c>
       <c r="K3">
-        <v>1.042070281625892</v>
+        <v>1.054852169320907</v>
       </c>
       <c r="L3">
-        <v>1.040667697286499</v>
+        <v>1.053024550343679</v>
       </c>
       <c r="M3">
-        <v>1.050502078813736</v>
+        <v>1.06414415671204</v>
       </c>
       <c r="N3">
-        <v>1.016170369160932</v>
+        <v>1.01954421352976</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.01964355148776</v>
+        <v>1.042760603703636</v>
       </c>
       <c r="D4">
-        <v>1.034195490905235</v>
+        <v>1.052830218481948</v>
       </c>
       <c r="E4">
-        <v>1.032669689173524</v>
+        <v>1.050975432162712</v>
       </c>
       <c r="F4">
-        <v>1.042839353603248</v>
+        <v>1.062173966657135</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056067454760312</v>
+        <v>1.039602950373283</v>
       </c>
       <c r="J4">
-        <v>1.038557779607094</v>
+        <v>1.047259312486932</v>
       </c>
       <c r="K4">
-        <v>1.043898006661918</v>
+        <v>1.055272353343205</v>
       </c>
       <c r="L4">
-        <v>1.042389182422826</v>
+        <v>1.053422106243716</v>
       </c>
       <c r="M4">
-        <v>1.052446840985913</v>
+        <v>1.064593493604727</v>
       </c>
       <c r="N4">
-        <v>1.016698701975338</v>
+        <v>1.019662479959742</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.020771204211776</v>
+        <v>1.043007040221012</v>
       </c>
       <c r="D5">
-        <v>1.035180233809911</v>
+        <v>1.053058244668542</v>
       </c>
       <c r="E5">
-        <v>1.033610398887766</v>
+        <v>1.051194038321909</v>
       </c>
       <c r="F5">
-        <v>1.04387078524897</v>
+        <v>1.062413786712957</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056352188092431</v>
+        <v>1.039641227042404</v>
       </c>
       <c r="J5">
-        <v>1.039216832150186</v>
+        <v>1.047409075359062</v>
       </c>
       <c r="K5">
-        <v>1.044657390502091</v>
+        <v>1.055448970567961</v>
       </c>
       <c r="L5">
-        <v>1.043104549574552</v>
+        <v>1.053589224997782</v>
       </c>
       <c r="M5">
-        <v>1.053254995387355</v>
+        <v>1.064782379843548</v>
       </c>
       <c r="N5">
-        <v>1.016918026647716</v>
+        <v>1.019712164224732</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020959802830474</v>
+        <v>1.043048421729569</v>
       </c>
       <c r="D6">
-        <v>1.035344993666267</v>
+        <v>1.053096538655024</v>
       </c>
       <c r="E6">
-        <v>1.033767805376288</v>
+        <v>1.051230751588217</v>
       </c>
       <c r="F6">
-        <v>1.044043358791916</v>
+        <v>1.062454061610661</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056399586995572</v>
+        <v>1.039647627504995</v>
       </c>
       <c r="J6">
-        <v>1.039327007427011</v>
+        <v>1.047434215902928</v>
       </c>
       <c r="K6">
-        <v>1.044784374507596</v>
+        <v>1.055478623687612</v>
       </c>
       <c r="L6">
-        <v>1.0432241803787</v>
+        <v>1.053617284128071</v>
       </c>
       <c r="M6">
-        <v>1.05339014323737</v>
+        <v>1.06481409375269</v>
       </c>
       <c r="N6">
-        <v>1.016954690981996</v>
+        <v>1.019720504370012</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.019658669031875</v>
+        <v>1.042763896349404</v>
       </c>
       <c r="D7">
-        <v>1.034208688333489</v>
+        <v>1.052833264882953</v>
       </c>
       <c r="E7">
-        <v>1.032682295534511</v>
+        <v>1.050978352629616</v>
       </c>
       <c r="F7">
-        <v>1.042853176610542</v>
+        <v>1.062177170603547</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056071286865808</v>
+        <v>1.039603463593647</v>
       </c>
       <c r="J7">
-        <v>1.03856661837341</v>
+        <v>1.047261313980164</v>
       </c>
       <c r="K7">
-        <v>1.0439081885783</v>
+        <v>1.055274713423482</v>
       </c>
       <c r="L7">
-        <v>1.04239877366936</v>
+        <v>1.053424339348338</v>
       </c>
       <c r="M7">
-        <v>1.052457676256536</v>
+        <v>1.064596017572638</v>
       </c>
       <c r="N7">
-        <v>1.016701643452335</v>
+        <v>1.019663143981159</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014110230541485</v>
+        <v>1.041575176025297</v>
       </c>
       <c r="D8">
-        <v>1.029372590489811</v>
+        <v>1.051733903745588</v>
       </c>
       <c r="E8">
-        <v>1.028064454966096</v>
+        <v>1.049924582932467</v>
       </c>
       <c r="F8">
-        <v>1.037788079667423</v>
+        <v>1.061020988870436</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054639000341747</v>
+        <v>1.039415056580492</v>
       </c>
       <c r="J8">
-        <v>1.035316895080288</v>
+        <v>1.046537853171395</v>
       </c>
       <c r="K8">
-        <v>1.040168863917162</v>
+        <v>1.054422166671761</v>
       </c>
       <c r="L8">
-        <v>1.0388772343871</v>
+        <v>1.052617748512885</v>
       </c>
       <c r="M8">
-        <v>1.048479405463469</v>
+        <v>1.06368437145481</v>
       </c>
       <c r="N8">
-        <v>1.015620094354666</v>
+        <v>1.019423091523932</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.0038887703175</v>
+        <v>1.039482655699022</v>
       </c>
       <c r="D9">
-        <v>1.020502238684349</v>
+        <v>1.049800867969932</v>
       </c>
       <c r="E9">
-        <v>1.019602657257713</v>
+        <v>1.048072398634682</v>
       </c>
       <c r="F9">
-        <v>1.028498806927329</v>
+        <v>1.058988198696236</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051880077449792</v>
+        <v>1.039068754812361</v>
       </c>
       <c r="J9">
-        <v>1.02930494949291</v>
+        <v>1.045260240006682</v>
       </c>
       <c r="K9">
-        <v>1.033271213969975</v>
+        <v>1.052919073163562</v>
       </c>
       <c r="L9">
-        <v>1.032385504097833</v>
+        <v>1.051196091165895</v>
       </c>
       <c r="M9">
-        <v>1.041145833608951</v>
+        <v>1.062077565544311</v>
       </c>
       <c r="N9">
-        <v>1.013619052314237</v>
+        <v>1.018999002907313</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9967451510271149</v>
+        <v>1.038089168571993</v>
       </c>
       <c r="D10">
-        <v>1.014331732867119</v>
+        <v>1.048515082745616</v>
       </c>
       <c r="E10">
-        <v>1.013722221726778</v>
+        <v>1.046840858890786</v>
       </c>
       <c r="F10">
-        <v>1.022037601406061</v>
+        <v>1.057636163610659</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049873874597851</v>
+        <v>1.038828317332607</v>
       </c>
       <c r="J10">
-        <v>1.025088504594381</v>
+        <v>1.04440669666708</v>
       </c>
       <c r="K10">
-        <v>1.028446956651572</v>
+        <v>1.051916554352355</v>
       </c>
       <c r="L10">
-        <v>1.027848059768005</v>
+        <v>1.050248166308679</v>
       </c>
       <c r="M10">
-        <v>1.03602004257409</v>
+        <v>1.061006198981366</v>
       </c>
       <c r="N10">
-        <v>1.01221562885533</v>
+        <v>1.018715572298724</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9935664174736678</v>
+        <v>1.037486150989429</v>
       </c>
       <c r="D11">
-        <v>1.011593463928537</v>
+        <v>1.047959032534492</v>
       </c>
       <c r="E11">
-        <v>1.011114140667722</v>
+        <v>1.046308379155313</v>
       </c>
       <c r="F11">
-        <v>1.019170492380298</v>
+        <v>1.057051487290507</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048963423908476</v>
+        <v>1.038721945352506</v>
       </c>
       <c r="J11">
-        <v>1.0232093120559</v>
+        <v>1.044036690205971</v>
       </c>
       <c r="K11">
-        <v>1.02630000699908</v>
+        <v>1.051482360878434</v>
       </c>
       <c r="L11">
-        <v>1.025829460726848</v>
+        <v>1.04983768384283</v>
       </c>
       <c r="M11">
-        <v>1.033739715764945</v>
+        <v>1.060542264611636</v>
       </c>
       <c r="N11">
-        <v>1.011590175831334</v>
+        <v>1.018592681718697</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9923721741573988</v>
+        <v>1.037262220444253</v>
       </c>
       <c r="D12">
-        <v>1.010565876883339</v>
+        <v>1.047752597965708</v>
       </c>
       <c r="E12">
-        <v>1.010135635613454</v>
+        <v>1.046110711999133</v>
       </c>
       <c r="F12">
-        <v>1.018094579636516</v>
+        <v>1.056834428864605</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04861877144477</v>
+        <v>1.038682095133786</v>
       </c>
       <c r="J12">
-        <v>1.022502902726972</v>
+        <v>1.043899191880312</v>
       </c>
       <c r="K12">
-        <v>1.025493412815857</v>
+        <v>1.051321068934477</v>
       </c>
       <c r="L12">
-        <v>1.025071195386437</v>
+        <v>1.049685209908324</v>
       </c>
       <c r="M12">
-        <v>1.032883137067378</v>
+        <v>1.060369936286964</v>
       </c>
       <c r="N12">
-        <v>1.011355067596629</v>
+        <v>1.01854701056582</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9926289665519582</v>
+        <v>1.037310251705925</v>
       </c>
       <c r="D13">
-        <v>1.010786779994893</v>
+        <v>1.047796874003441</v>
       </c>
       <c r="E13">
-        <v>1.010345977092958</v>
+        <v>1.046153106841099</v>
       </c>
       <c r="F13">
-        <v>1.018325870375884</v>
+        <v>1.056880983340502</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048692996696132</v>
+        <v>1.038690658466151</v>
       </c>
       <c r="J13">
-        <v>1.022654815861815</v>
+        <v>1.043928688500583</v>
       </c>
       <c r="K13">
-        <v>1.025666849573633</v>
+        <v>1.051355667178455</v>
       </c>
       <c r="L13">
-        <v>1.025234235375885</v>
+        <v>1.049717916176634</v>
       </c>
       <c r="M13">
-        <v>1.033067316021712</v>
+        <v>1.060406901385716</v>
       </c>
       <c r="N13">
-        <v>1.011405627226091</v>
+        <v>1.018556808268086</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9934679808172445</v>
+        <v>1.037467639650203</v>
       </c>
       <c r="D14">
-        <v>1.011508739871332</v>
+        <v>1.047941966391908</v>
       </c>
       <c r="E14">
-        <v>1.011033458751398</v>
+        <v>1.046292037479138</v>
       </c>
       <c r="F14">
-        <v>1.019081783407766</v>
+        <v>1.057033542789475</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048935068015935</v>
+        <v>1.038718658230693</v>
       </c>
       <c r="J14">
-        <v>1.023151093456029</v>
+        <v>1.044025325798535</v>
       </c>
       <c r="K14">
-        <v>1.026233522185283</v>
+        <v>1.051469028696893</v>
       </c>
       <c r="L14">
-        <v>1.025766957280716</v>
+        <v>1.049825080343022</v>
       </c>
       <c r="M14">
-        <v>1.033669108357961</v>
+        <v>1.06052801994032</v>
       </c>
       <c r="N14">
-        <v>1.011570799281661</v>
+        <v>1.018588907016636</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.993983112699203</v>
+        <v>1.037564619151059</v>
       </c>
       <c r="D15">
-        <v>1.011952160150575</v>
+        <v>1.048031376858276</v>
       </c>
       <c r="E15">
-        <v>1.011455732957929</v>
+        <v>1.046377653115899</v>
       </c>
       <c r="F15">
-        <v>1.019546060512328</v>
+        <v>1.057127555173165</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049083352595822</v>
+        <v>1.03873586492086</v>
       </c>
       <c r="J15">
-        <v>1.023455742940235</v>
+        <v>1.044084859118127</v>
       </c>
       <c r="K15">
-        <v>1.026581446626471</v>
+        <v>1.051538872765406</v>
       </c>
       <c r="L15">
-        <v>1.026094051091586</v>
+        <v>1.049891107432765</v>
       </c>
       <c r="M15">
-        <v>1.034038611994604</v>
+        <v>1.060602644797286</v>
       </c>
       <c r="N15">
-        <v>1.011672194233363</v>
+        <v>1.018608680931077</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9969542551479208</v>
+        <v>1.038129196794574</v>
       </c>
       <c r="D16">
-        <v>1.014512022156184</v>
+        <v>1.048552000918885</v>
       </c>
       <c r="E16">
-        <v>1.013893970460895</v>
+        <v>1.046876214492762</v>
       </c>
       <c r="F16">
-        <v>1.022226376960283</v>
+        <v>1.057674982884862</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049933401964804</v>
+        <v>1.038835329319242</v>
       </c>
       <c r="J16">
-        <v>1.025212063859291</v>
+        <v>1.044431244097568</v>
       </c>
       <c r="K16">
-        <v>1.028588186313787</v>
+        <v>1.051945368427172</v>
       </c>
       <c r="L16">
-        <v>1.027980861266047</v>
+        <v>1.050275408263274</v>
       </c>
       <c r="M16">
-        <v>1.036170063134847</v>
+        <v>1.06103698835824</v>
       </c>
       <c r="N16">
-        <v>1.012256753944773</v>
+        <v>1.018723724737</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9987946212356126</v>
+        <v>1.038483441763931</v>
       </c>
       <c r="D17">
-        <v>1.016099638436207</v>
+        <v>1.04887876404021</v>
       </c>
       <c r="E17">
-        <v>1.015406546877422</v>
+        <v>1.04718916017893</v>
       </c>
       <c r="F17">
-        <v>1.023888741276892</v>
+        <v>1.058018575474707</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050455301802809</v>
+        <v>1.038897115918697</v>
       </c>
       <c r="J17">
-        <v>1.026299199307791</v>
+        <v>1.044648411518831</v>
       </c>
       <c r="K17">
-        <v>1.02983115084732</v>
+        <v>1.052200327576229</v>
       </c>
       <c r="L17">
-        <v>1.029149730398942</v>
+        <v>1.050516464277986</v>
       </c>
       <c r="M17">
-        <v>1.037490489529073</v>
+        <v>1.061309434740498</v>
       </c>
       <c r="N17">
-        <v>1.012618596183765</v>
+        <v>1.018795845256987</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9998598740940063</v>
+        <v>1.03869010262795</v>
       </c>
       <c r="D18">
-        <v>1.01701929674284</v>
+        <v>1.049069427190833</v>
       </c>
       <c r="E18">
-        <v>1.016282875614927</v>
+        <v>1.047371771748617</v>
       </c>
       <c r="F18">
-        <v>1.024851714394509</v>
+        <v>1.058219060804535</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050755702769769</v>
+        <v>1.038932936796109</v>
       </c>
       <c r="J18">
-        <v>1.026928176262385</v>
+        <v>1.04477504133352</v>
       </c>
       <c r="K18">
-        <v>1.030550582217582</v>
+        <v>1.052349031564238</v>
       </c>
       <c r="L18">
-        <v>1.02982634237666</v>
+        <v>1.050657065701808</v>
       </c>
       <c r="M18">
-        <v>1.038254833273416</v>
+        <v>1.061468345544334</v>
       </c>
       <c r="N18">
-        <v>1.012827947336788</v>
+        <v>1.018837896157011</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.000221726429175</v>
+        <v>1.038760574671667</v>
       </c>
       <c r="D19">
-        <v>1.017331810314833</v>
+        <v>1.049134449841554</v>
       </c>
       <c r="E19">
-        <v>1.016580688502558</v>
+        <v>1.047434050357619</v>
       </c>
       <c r="F19">
-        <v>1.025178949632783</v>
+        <v>1.058287433552353</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050857456621277</v>
+        <v>1.03894511375594</v>
       </c>
       <c r="J19">
-        <v>1.027141781558193</v>
+        <v>1.044818211963267</v>
       </c>
       <c r="K19">
-        <v>1.0307949570439</v>
+        <v>1.05239973415236</v>
       </c>
       <c r="L19">
-        <v>1.030056183761453</v>
+        <v>1.050705006696669</v>
       </c>
       <c r="M19">
-        <v>1.038514476880144</v>
+        <v>1.061522529544686</v>
       </c>
       <c r="N19">
-        <v>1.012899044899258</v>
+        <v>1.018852231738393</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9985980204299728</v>
+        <v>1.038445430922919</v>
       </c>
       <c r="D20">
-        <v>1.015929964745709</v>
+        <v>1.048843698430579</v>
       </c>
       <c r="E20">
-        <v>1.015244878503068</v>
+        <v>1.047155576232724</v>
       </c>
       <c r="F20">
-        <v>1.023711077415546</v>
+        <v>1.05798170361839</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050399723503645</v>
+        <v>1.03889050936536</v>
       </c>
       <c r="J20">
-        <v>1.026183093218234</v>
+        <v>1.044625115666676</v>
       </c>
       <c r="K20">
-        <v>1.029698371372188</v>
+        <v>1.052172973832218</v>
       </c>
       <c r="L20">
-        <v>1.029024859164997</v>
+        <v>1.050490601495506</v>
       </c>
       <c r="M20">
-        <v>1.037349427178631</v>
+        <v>1.061280204076895</v>
       </c>
       <c r="N20">
-        <v>1.012579951156717</v>
+        <v>1.018788109036886</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9932212908973871</v>
+        <v>1.037421291239226</v>
       </c>
       <c r="D21">
-        <v>1.011296433907744</v>
+        <v>1.047899237326897</v>
       </c>
       <c r="E21">
-        <v>1.0108312854688</v>
+        <v>1.046251122556868</v>
       </c>
       <c r="F21">
-        <v>1.01885949222009</v>
+        <v>1.056988614608052</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048863964319658</v>
+        <v>1.03871042234797</v>
       </c>
       <c r="J21">
-        <v>1.023005186821499</v>
+        <v>1.043996870210197</v>
       </c>
       <c r="K21">
-        <v>1.026066906411659</v>
+        <v>1.051435646907909</v>
       </c>
       <c r="L21">
-        <v>1.025610320856438</v>
+        <v>1.049793523225198</v>
       </c>
       <c r="M21">
-        <v>1.033492163076676</v>
+        <v>1.060492353601012</v>
       </c>
       <c r="N21">
-        <v>1.011522238158881</v>
+        <v>1.018579455397786</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9897621364375335</v>
+        <v>1.036777704556021</v>
       </c>
       <c r="D22">
-        <v>1.008322291759795</v>
+        <v>1.047306038368113</v>
       </c>
       <c r="E22">
-        <v>1.007999637604871</v>
+        <v>1.045683148950668</v>
       </c>
       <c r="F22">
-        <v>1.015745525999463</v>
+        <v>1.056364894349325</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047860827246364</v>
+        <v>1.038595233924021</v>
       </c>
       <c r="J22">
-        <v>1.02095835043349</v>
+        <v>1.043601512375277</v>
       </c>
       <c r="K22">
-        <v>1.023730665806836</v>
+        <v>1.050971984734126</v>
       </c>
       <c r="L22">
-        <v>1.023414268580546</v>
+        <v>1.049355228774191</v>
       </c>
       <c r="M22">
-        <v>1.031011383825346</v>
+        <v>1.059996987291863</v>
       </c>
       <c r="N22">
-        <v>1.010841021979542</v>
+        <v>1.018448127224723</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9916035865645738</v>
+        <v>1.037118850292914</v>
       </c>
       <c r="D23">
-        <v>1.009904883536584</v>
+        <v>1.047620444949281</v>
       </c>
       <c r="E23">
-        <v>1.009506278837141</v>
+        <v>1.045984176357816</v>
       </c>
       <c r="F23">
-        <v>1.017402507574737</v>
+        <v>1.056695475805008</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048396237521706</v>
+        <v>1.038656483075181</v>
       </c>
       <c r="J23">
-        <v>1.02204816698508</v>
+        <v>1.043811132315033</v>
       </c>
       <c r="K23">
-        <v>1.024974316792811</v>
+        <v>1.051217787546248</v>
       </c>
       <c r="L23">
-        <v>1.024583232909637</v>
+        <v>1.049587577836083</v>
       </c>
       <c r="M23">
-        <v>1.032331908044036</v>
+        <v>1.060259591153256</v>
       </c>
       <c r="N23">
-        <v>1.011203723886222</v>
+        <v>1.018517759846998</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9986868811676295</v>
+        <v>1.038462606275396</v>
       </c>
       <c r="D24">
-        <v>1.016006652636724</v>
+        <v>1.048859542861016</v>
       </c>
       <c r="E24">
-        <v>1.015317947779448</v>
+        <v>1.047170751138846</v>
       </c>
       <c r="F24">
-        <v>1.023791376598205</v>
+        <v>1.057998364195932</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050424849335886</v>
+        <v>1.038893495256707</v>
       </c>
       <c r="J24">
-        <v>1.0262355723916</v>
+        <v>1.044635642184035</v>
       </c>
       <c r="K24">
-        <v>1.029758385881571</v>
+        <v>1.052185333840787</v>
       </c>
       <c r="L24">
-        <v>1.029081299049053</v>
+        <v>1.050502287781417</v>
       </c>
       <c r="M24">
-        <v>1.037413185195234</v>
+        <v>1.061293412163611</v>
       </c>
       <c r="N24">
-        <v>1.012597418442301</v>
+        <v>1.018791604750543</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.006586952861801</v>
+        <v>1.040023358900693</v>
       </c>
       <c r="D25">
-        <v>1.022838984556225</v>
+        <v>1.050300098952236</v>
       </c>
       <c r="E25">
-        <v>1.021830785353778</v>
+        <v>1.048550666795216</v>
       </c>
       <c r="F25">
-        <v>1.030945784560587</v>
+        <v>1.059513174253997</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052622059448222</v>
+        <v>1.039159972324514</v>
       </c>
       <c r="J25">
-        <v>1.03089465517063</v>
+        <v>1.045590856204023</v>
       </c>
       <c r="K25">
-        <v>1.035092806275063</v>
+        <v>1.053307745125358</v>
       </c>
       <c r="L25">
-        <v>1.034099401788566</v>
+        <v>1.051563656243487</v>
       </c>
       <c r="M25">
-        <v>1.043081976024341</v>
+        <v>1.062492998287907</v>
       </c>
       <c r="N25">
-        <v>1.014148186532982</v>
+        <v>1.019108766039697</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_35/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041269294343564</v>
+        <v>1.01265273322767</v>
       </c>
       <c r="D2">
-        <v>1.051451163315476</v>
+        <v>1.028104712813109</v>
       </c>
       <c r="E2">
-        <v>1.049653614489217</v>
+        <v>1.026854336440843</v>
       </c>
       <c r="F2">
-        <v>1.060723645518419</v>
+        <v>1.036460240642048</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039365580196626</v>
+        <v>1.054254625208147</v>
       </c>
       <c r="J2">
-        <v>1.046351413287061</v>
+        <v>1.034461478686248</v>
       </c>
       <c r="K2">
-        <v>1.054202629194361</v>
+        <v>1.039185912036539</v>
       </c>
       <c r="L2">
-        <v>1.052410073043047</v>
+        <v>1.037951807739507</v>
       </c>
       <c r="M2">
-        <v>1.063449648228745</v>
+        <v>1.047433962206706</v>
       </c>
       <c r="N2">
-        <v>1.019361217592652</v>
+        <v>1.015335383877584</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042174561338871</v>
+        <v>1.016930736489019</v>
       </c>
       <c r="D3">
-        <v>1.052288117105676</v>
+        <v>1.031829085123144</v>
       </c>
       <c r="E3">
-        <v>1.050455776351999</v>
+        <v>1.030409672748625</v>
       </c>
       <c r="F3">
-        <v>1.061603838558651</v>
+        <v>1.040360835575142</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039510833925993</v>
+        <v>1.055373427019577</v>
       </c>
       <c r="J3">
-        <v>1.046902859859393</v>
+        <v>1.036970257385512</v>
       </c>
       <c r="K3">
-        <v>1.054852169320907</v>
+        <v>1.042070281625893</v>
       </c>
       <c r="L3">
-        <v>1.053024550343679</v>
+        <v>1.040667697286499</v>
       </c>
       <c r="M3">
-        <v>1.06414415671204</v>
+        <v>1.050502078813736</v>
       </c>
       <c r="N3">
-        <v>1.01954421352976</v>
+        <v>1.016170369160932</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042760603703636</v>
+        <v>1.019643551487759</v>
       </c>
       <c r="D4">
-        <v>1.052830218481948</v>
+        <v>1.034195490905234</v>
       </c>
       <c r="E4">
-        <v>1.050975432162712</v>
+        <v>1.032669689173523</v>
       </c>
       <c r="F4">
-        <v>1.062173966657135</v>
+        <v>1.042839353603247</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039602950373283</v>
+        <v>1.056067454760312</v>
       </c>
       <c r="J4">
-        <v>1.047259312486932</v>
+        <v>1.038557779607094</v>
       </c>
       <c r="K4">
-        <v>1.055272353343205</v>
+        <v>1.043898006661917</v>
       </c>
       <c r="L4">
-        <v>1.053422106243716</v>
+        <v>1.042389182422825</v>
       </c>
       <c r="M4">
-        <v>1.064593493604727</v>
+        <v>1.052446840985912</v>
       </c>
       <c r="N4">
-        <v>1.019662479959742</v>
+        <v>1.016698701975337</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043007040221012</v>
+        <v>1.020771204211776</v>
       </c>
       <c r="D5">
-        <v>1.053058244668542</v>
+        <v>1.035180233809911</v>
       </c>
       <c r="E5">
-        <v>1.051194038321909</v>
+        <v>1.033610398887766</v>
       </c>
       <c r="F5">
-        <v>1.062413786712957</v>
+        <v>1.043870785248969</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039641227042404</v>
+        <v>1.056352188092431</v>
       </c>
       <c r="J5">
-        <v>1.047409075359062</v>
+        <v>1.039216832150186</v>
       </c>
       <c r="K5">
-        <v>1.055448970567961</v>
+        <v>1.044657390502091</v>
       </c>
       <c r="L5">
-        <v>1.053589224997782</v>
+        <v>1.043104549574552</v>
       </c>
       <c r="M5">
-        <v>1.064782379843548</v>
+        <v>1.053254995387355</v>
       </c>
       <c r="N5">
-        <v>1.019712164224732</v>
+        <v>1.016918026647716</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043048421729569</v>
+        <v>1.020959802830474</v>
       </c>
       <c r="D6">
-        <v>1.053096538655024</v>
+        <v>1.035344993666268</v>
       </c>
       <c r="E6">
-        <v>1.051230751588217</v>
+        <v>1.033767805376288</v>
       </c>
       <c r="F6">
-        <v>1.062454061610661</v>
+        <v>1.044043358791916</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039647627504995</v>
+        <v>1.056399586995573</v>
       </c>
       <c r="J6">
-        <v>1.047434215902928</v>
+        <v>1.039327007427012</v>
       </c>
       <c r="K6">
-        <v>1.055478623687612</v>
+        <v>1.044784374507597</v>
       </c>
       <c r="L6">
-        <v>1.053617284128071</v>
+        <v>1.043224180378701</v>
       </c>
       <c r="M6">
-        <v>1.06481409375269</v>
+        <v>1.053390143237371</v>
       </c>
       <c r="N6">
-        <v>1.019720504370012</v>
+        <v>1.016954690981996</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042763896349404</v>
+        <v>1.019658669031874</v>
       </c>
       <c r="D7">
-        <v>1.052833264882953</v>
+        <v>1.034208688333488</v>
       </c>
       <c r="E7">
-        <v>1.050978352629616</v>
+        <v>1.032682295534511</v>
       </c>
       <c r="F7">
-        <v>1.062177170603547</v>
+        <v>1.042853176610541</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039603463593647</v>
+        <v>1.056071286865808</v>
       </c>
       <c r="J7">
-        <v>1.047261313980164</v>
+        <v>1.03856661837341</v>
       </c>
       <c r="K7">
-        <v>1.055274713423482</v>
+        <v>1.0439081885783</v>
       </c>
       <c r="L7">
-        <v>1.053424339348338</v>
+        <v>1.042398773669359</v>
       </c>
       <c r="M7">
-        <v>1.064596017572638</v>
+        <v>1.052457676256535</v>
       </c>
       <c r="N7">
-        <v>1.019663143981159</v>
+        <v>1.016701643452335</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041575176025297</v>
+        <v>1.014110230541485</v>
       </c>
       <c r="D8">
-        <v>1.051733903745588</v>
+        <v>1.029372590489811</v>
       </c>
       <c r="E8">
-        <v>1.049924582932467</v>
+        <v>1.028064454966096</v>
       </c>
       <c r="F8">
-        <v>1.061020988870436</v>
+        <v>1.037788079667423</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039415056580492</v>
+        <v>1.054639000341747</v>
       </c>
       <c r="J8">
-        <v>1.046537853171395</v>
+        <v>1.035316895080287</v>
       </c>
       <c r="K8">
-        <v>1.054422166671761</v>
+        <v>1.040168863917162</v>
       </c>
       <c r="L8">
-        <v>1.052617748512885</v>
+        <v>1.0388772343871</v>
       </c>
       <c r="M8">
-        <v>1.06368437145481</v>
+        <v>1.048479405463468</v>
       </c>
       <c r="N8">
-        <v>1.019423091523932</v>
+        <v>1.015620094354666</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039482655699022</v>
+        <v>1.0038887703175</v>
       </c>
       <c r="D9">
-        <v>1.049800867969932</v>
+        <v>1.020502238684349</v>
       </c>
       <c r="E9">
-        <v>1.048072398634682</v>
+        <v>1.019602657257713</v>
       </c>
       <c r="F9">
-        <v>1.058988198696236</v>
+        <v>1.028498806927329</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039068754812361</v>
+        <v>1.051880077449792</v>
       </c>
       <c r="J9">
-        <v>1.045260240006682</v>
+        <v>1.029304949492909</v>
       </c>
       <c r="K9">
-        <v>1.052919073163562</v>
+        <v>1.033271213969975</v>
       </c>
       <c r="L9">
-        <v>1.051196091165895</v>
+        <v>1.032385504097833</v>
       </c>
       <c r="M9">
-        <v>1.062077565544311</v>
+        <v>1.041145833608951</v>
       </c>
       <c r="N9">
-        <v>1.018999002907313</v>
+        <v>1.013619052314237</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.038089168571993</v>
+        <v>0.9967451510271154</v>
       </c>
       <c r="D10">
-        <v>1.048515082745616</v>
+        <v>1.01433173286712</v>
       </c>
       <c r="E10">
-        <v>1.046840858890786</v>
+        <v>1.013722221726779</v>
       </c>
       <c r="F10">
-        <v>1.057636163610659</v>
+        <v>1.022037601406061</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038828317332607</v>
+        <v>1.049873874597851</v>
       </c>
       <c r="J10">
-        <v>1.04440669666708</v>
+        <v>1.025088504594381</v>
       </c>
       <c r="K10">
-        <v>1.051916554352355</v>
+        <v>1.028446956651573</v>
       </c>
       <c r="L10">
-        <v>1.050248166308679</v>
+        <v>1.027848059768005</v>
       </c>
       <c r="M10">
-        <v>1.061006198981366</v>
+        <v>1.03602004257409</v>
       </c>
       <c r="N10">
-        <v>1.018715572298724</v>
+        <v>1.01221562885533</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037486150989429</v>
+        <v>0.9935664174736676</v>
       </c>
       <c r="D11">
-        <v>1.047959032534492</v>
+        <v>1.011593463928537</v>
       </c>
       <c r="E11">
-        <v>1.046308379155313</v>
+        <v>1.011114140667722</v>
       </c>
       <c r="F11">
-        <v>1.057051487290507</v>
+        <v>1.019170492380298</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038721945352506</v>
+        <v>1.048963423908476</v>
       </c>
       <c r="J11">
-        <v>1.044036690205971</v>
+        <v>1.0232093120559</v>
       </c>
       <c r="K11">
-        <v>1.051482360878434</v>
+        <v>1.02630000699908</v>
       </c>
       <c r="L11">
-        <v>1.04983768384283</v>
+        <v>1.025829460726847</v>
       </c>
       <c r="M11">
-        <v>1.060542264611636</v>
+        <v>1.033739715764945</v>
       </c>
       <c r="N11">
-        <v>1.018592681718697</v>
+        <v>1.011590175831334</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.037262220444253</v>
+        <v>0.9923721741573988</v>
       </c>
       <c r="D12">
-        <v>1.047752597965708</v>
+        <v>1.010565876883338</v>
       </c>
       <c r="E12">
-        <v>1.046110711999133</v>
+        <v>1.010135635613453</v>
       </c>
       <c r="F12">
-        <v>1.056834428864605</v>
+        <v>1.018094579636516</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038682095133786</v>
+        <v>1.04861877144477</v>
       </c>
       <c r="J12">
-        <v>1.043899191880312</v>
+        <v>1.022502902726972</v>
       </c>
       <c r="K12">
-        <v>1.051321068934477</v>
+        <v>1.025493412815856</v>
       </c>
       <c r="L12">
-        <v>1.049685209908324</v>
+        <v>1.025071195386436</v>
       </c>
       <c r="M12">
-        <v>1.060369936286964</v>
+        <v>1.032883137067379</v>
       </c>
       <c r="N12">
-        <v>1.01854701056582</v>
+        <v>1.011355067596629</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037310251705925</v>
+        <v>0.992628966551958</v>
       </c>
       <c r="D13">
-        <v>1.047796874003441</v>
+        <v>1.010786779994893</v>
       </c>
       <c r="E13">
-        <v>1.046153106841099</v>
+        <v>1.010345977092957</v>
       </c>
       <c r="F13">
-        <v>1.056880983340502</v>
+        <v>1.018325870375884</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038690658466151</v>
+        <v>1.048692996696132</v>
       </c>
       <c r="J13">
-        <v>1.043928688500583</v>
+        <v>1.022654815861815</v>
       </c>
       <c r="K13">
-        <v>1.051355667178455</v>
+        <v>1.025666849573633</v>
       </c>
       <c r="L13">
-        <v>1.049717916176634</v>
+        <v>1.025234235375885</v>
       </c>
       <c r="M13">
-        <v>1.060406901385716</v>
+        <v>1.033067316021711</v>
       </c>
       <c r="N13">
-        <v>1.018556808268086</v>
+        <v>1.01140562722609</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037467639650203</v>
+        <v>0.9934679808172436</v>
       </c>
       <c r="D14">
-        <v>1.047941966391908</v>
+        <v>1.011508739871332</v>
       </c>
       <c r="E14">
-        <v>1.046292037479138</v>
+        <v>1.011033458751398</v>
       </c>
       <c r="F14">
-        <v>1.057033542789475</v>
+        <v>1.019081783407765</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038718658230693</v>
+        <v>1.048935068015935</v>
       </c>
       <c r="J14">
-        <v>1.044025325798535</v>
+        <v>1.023151093456028</v>
       </c>
       <c r="K14">
-        <v>1.051469028696893</v>
+        <v>1.026233522185282</v>
       </c>
       <c r="L14">
-        <v>1.049825080343022</v>
+        <v>1.025766957280716</v>
       </c>
       <c r="M14">
-        <v>1.06052801994032</v>
+        <v>1.03366910835796</v>
       </c>
       <c r="N14">
-        <v>1.018588907016636</v>
+        <v>1.01157079928166</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037564619151059</v>
+        <v>0.9939831126992037</v>
       </c>
       <c r="D15">
-        <v>1.048031376858276</v>
+        <v>1.011952160150576</v>
       </c>
       <c r="E15">
-        <v>1.046377653115899</v>
+        <v>1.01145573295793</v>
       </c>
       <c r="F15">
-        <v>1.057127555173165</v>
+        <v>1.019546060512329</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03873586492086</v>
+        <v>1.049083352595822</v>
       </c>
       <c r="J15">
-        <v>1.044084859118127</v>
+        <v>1.023455742940236</v>
       </c>
       <c r="K15">
-        <v>1.051538872765406</v>
+        <v>1.026581446626472</v>
       </c>
       <c r="L15">
-        <v>1.049891107432765</v>
+        <v>1.026094051091586</v>
       </c>
       <c r="M15">
-        <v>1.060602644797286</v>
+        <v>1.034038611994605</v>
       </c>
       <c r="N15">
-        <v>1.018608680931077</v>
+        <v>1.011672194233364</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.038129196794574</v>
+        <v>0.9969542551479204</v>
       </c>
       <c r="D16">
-        <v>1.048552000918885</v>
+        <v>1.014512022156184</v>
       </c>
       <c r="E16">
-        <v>1.046876214492762</v>
+        <v>1.013893970460895</v>
       </c>
       <c r="F16">
-        <v>1.057674982884862</v>
+        <v>1.022226376960283</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038835329319242</v>
+        <v>1.049933401964803</v>
       </c>
       <c r="J16">
-        <v>1.044431244097568</v>
+        <v>1.025212063859291</v>
       </c>
       <c r="K16">
-        <v>1.051945368427172</v>
+        <v>1.028588186313787</v>
       </c>
       <c r="L16">
-        <v>1.050275408263274</v>
+        <v>1.027980861266047</v>
       </c>
       <c r="M16">
-        <v>1.06103698835824</v>
+        <v>1.036170063134847</v>
       </c>
       <c r="N16">
-        <v>1.018723724737</v>
+        <v>1.012256753944773</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038483441763931</v>
+        <v>0.998794621235612</v>
       </c>
       <c r="D17">
-        <v>1.04887876404021</v>
+        <v>1.016099638436206</v>
       </c>
       <c r="E17">
-        <v>1.04718916017893</v>
+        <v>1.015406546877421</v>
       </c>
       <c r="F17">
-        <v>1.058018575474707</v>
+        <v>1.023888741276892</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038897115918697</v>
+        <v>1.050455301802809</v>
       </c>
       <c r="J17">
-        <v>1.044648411518831</v>
+        <v>1.026299199307791</v>
       </c>
       <c r="K17">
-        <v>1.052200327576229</v>
+        <v>1.029831150847319</v>
       </c>
       <c r="L17">
-        <v>1.050516464277986</v>
+        <v>1.029149730398941</v>
       </c>
       <c r="M17">
-        <v>1.061309434740498</v>
+        <v>1.037490489529072</v>
       </c>
       <c r="N17">
-        <v>1.018795845256987</v>
+        <v>1.012618596183765</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03869010262795</v>
+        <v>0.9998598740940069</v>
       </c>
       <c r="D18">
-        <v>1.049069427190833</v>
+        <v>1.017019296742841</v>
       </c>
       <c r="E18">
-        <v>1.047371771748617</v>
+        <v>1.016282875614928</v>
       </c>
       <c r="F18">
-        <v>1.058219060804535</v>
+        <v>1.024851714394509</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038932936796109</v>
+        <v>1.05075570276977</v>
       </c>
       <c r="J18">
-        <v>1.04477504133352</v>
+        <v>1.026928176262386</v>
       </c>
       <c r="K18">
-        <v>1.052349031564238</v>
+        <v>1.030550582217582</v>
       </c>
       <c r="L18">
-        <v>1.050657065701808</v>
+        <v>1.02982634237666</v>
       </c>
       <c r="M18">
-        <v>1.061468345544334</v>
+        <v>1.038254833273416</v>
       </c>
       <c r="N18">
-        <v>1.018837896157011</v>
+        <v>1.012827947336789</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038760574671667</v>
+        <v>1.000221726429174</v>
       </c>
       <c r="D19">
-        <v>1.049134449841554</v>
+        <v>1.017331810314832</v>
       </c>
       <c r="E19">
-        <v>1.047434050357619</v>
+        <v>1.016580688502557</v>
       </c>
       <c r="F19">
-        <v>1.058287433552353</v>
+        <v>1.025178949632782</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03894511375594</v>
+        <v>1.050857456621276</v>
       </c>
       <c r="J19">
-        <v>1.044818211963267</v>
+        <v>1.027141781558193</v>
       </c>
       <c r="K19">
-        <v>1.05239973415236</v>
+        <v>1.0307949570439</v>
       </c>
       <c r="L19">
-        <v>1.050705006696669</v>
+        <v>1.030056183761453</v>
       </c>
       <c r="M19">
-        <v>1.061522529544686</v>
+        <v>1.038514476880144</v>
       </c>
       <c r="N19">
-        <v>1.018852231738393</v>
+        <v>1.012899044899257</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038445430922919</v>
+        <v>0.998598020429972</v>
       </c>
       <c r="D20">
-        <v>1.048843698430579</v>
+        <v>1.015929964745708</v>
       </c>
       <c r="E20">
-        <v>1.047155576232724</v>
+        <v>1.015244878503067</v>
       </c>
       <c r="F20">
-        <v>1.05798170361839</v>
+        <v>1.023711077415545</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03889050936536</v>
+        <v>1.050399723503645</v>
       </c>
       <c r="J20">
-        <v>1.044625115666676</v>
+        <v>1.026183093218233</v>
       </c>
       <c r="K20">
-        <v>1.052172973832218</v>
+        <v>1.029698371372187</v>
       </c>
       <c r="L20">
-        <v>1.050490601495506</v>
+        <v>1.029024859164996</v>
       </c>
       <c r="M20">
-        <v>1.061280204076895</v>
+        <v>1.03734942717863</v>
       </c>
       <c r="N20">
-        <v>1.018788109036886</v>
+        <v>1.012579951156717</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037421291239226</v>
+        <v>0.9932212908973864</v>
       </c>
       <c r="D21">
-        <v>1.047899237326897</v>
+        <v>1.011296433907744</v>
       </c>
       <c r="E21">
-        <v>1.046251122556868</v>
+        <v>1.0108312854688</v>
       </c>
       <c r="F21">
-        <v>1.056988614608052</v>
+        <v>1.018859492220089</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03871042234797</v>
+        <v>1.048863964319658</v>
       </c>
       <c r="J21">
-        <v>1.043996870210197</v>
+        <v>1.023005186821498</v>
       </c>
       <c r="K21">
-        <v>1.051435646907909</v>
+        <v>1.026066906411659</v>
       </c>
       <c r="L21">
-        <v>1.049793523225198</v>
+        <v>1.025610320856438</v>
       </c>
       <c r="M21">
-        <v>1.060492353601012</v>
+        <v>1.033492163076675</v>
       </c>
       <c r="N21">
-        <v>1.018579455397786</v>
+        <v>1.011522238158881</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036777704556021</v>
+        <v>0.9897621364375324</v>
       </c>
       <c r="D22">
-        <v>1.047306038368113</v>
+        <v>1.008322291759793</v>
       </c>
       <c r="E22">
-        <v>1.045683148950668</v>
+        <v>1.007999637604869</v>
       </c>
       <c r="F22">
-        <v>1.056364894349325</v>
+        <v>1.015745525999462</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038595233924021</v>
+        <v>1.047860827246363</v>
       </c>
       <c r="J22">
-        <v>1.043601512375277</v>
+        <v>1.020958350433489</v>
       </c>
       <c r="K22">
-        <v>1.050971984734126</v>
+        <v>1.023730665806835</v>
       </c>
       <c r="L22">
-        <v>1.049355228774191</v>
+        <v>1.023414268580545</v>
       </c>
       <c r="M22">
-        <v>1.059996987291863</v>
+        <v>1.031011383825344</v>
       </c>
       <c r="N22">
-        <v>1.018448127224723</v>
+        <v>1.010841021979542</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.037118850292914</v>
+        <v>0.9916035865645739</v>
       </c>
       <c r="D23">
-        <v>1.047620444949281</v>
+        <v>1.009904883536585</v>
       </c>
       <c r="E23">
-        <v>1.045984176357816</v>
+        <v>1.009506278837141</v>
       </c>
       <c r="F23">
-        <v>1.056695475805008</v>
+        <v>1.017402507574737</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038656483075181</v>
+        <v>1.048396237521706</v>
       </c>
       <c r="J23">
-        <v>1.043811132315033</v>
+        <v>1.02204816698508</v>
       </c>
       <c r="K23">
-        <v>1.051217787546248</v>
+        <v>1.024974316792811</v>
       </c>
       <c r="L23">
-        <v>1.049587577836083</v>
+        <v>1.024583232909637</v>
       </c>
       <c r="M23">
-        <v>1.060259591153256</v>
+        <v>1.032331908044036</v>
       </c>
       <c r="N23">
-        <v>1.018517759846998</v>
+        <v>1.011203723886222</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038462606275396</v>
+        <v>0.998686881167628</v>
       </c>
       <c r="D24">
-        <v>1.048859542861016</v>
+        <v>1.016006652636722</v>
       </c>
       <c r="E24">
-        <v>1.047170751138846</v>
+        <v>1.015317947779447</v>
       </c>
       <c r="F24">
-        <v>1.057998364195932</v>
+        <v>1.023791376598204</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038893495256707</v>
+        <v>1.050424849335885</v>
       </c>
       <c r="J24">
-        <v>1.044635642184035</v>
+        <v>1.026235572391598</v>
       </c>
       <c r="K24">
-        <v>1.052185333840787</v>
+        <v>1.02975838588157</v>
       </c>
       <c r="L24">
-        <v>1.050502287781417</v>
+        <v>1.029081299049051</v>
       </c>
       <c r="M24">
-        <v>1.061293412163611</v>
+        <v>1.037413185195232</v>
       </c>
       <c r="N24">
-        <v>1.018791604750543</v>
+        <v>1.012597418442301</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040023358900693</v>
+        <v>1.006586952861801</v>
       </c>
       <c r="D25">
-        <v>1.050300098952236</v>
+        <v>1.022838984556225</v>
       </c>
       <c r="E25">
-        <v>1.048550666795216</v>
+        <v>1.021830785353778</v>
       </c>
       <c r="F25">
-        <v>1.059513174253997</v>
+        <v>1.030945784560587</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039159972324514</v>
+        <v>1.052622059448222</v>
       </c>
       <c r="J25">
-        <v>1.045590856204023</v>
+        <v>1.03089465517063</v>
       </c>
       <c r="K25">
-        <v>1.053307745125358</v>
+        <v>1.035092806275063</v>
       </c>
       <c r="L25">
-        <v>1.051563656243487</v>
+        <v>1.034099401788566</v>
       </c>
       <c r="M25">
-        <v>1.062492998287907</v>
+        <v>1.043081976024341</v>
       </c>
       <c r="N25">
-        <v>1.019108766039697</v>
+        <v>1.014148186532982</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_35/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01265273322767</v>
+        <v>0.9749325248000038</v>
       </c>
       <c r="D2">
-        <v>1.028104712813109</v>
+        <v>0.9921744346442311</v>
       </c>
       <c r="E2">
-        <v>1.026854336440843</v>
+        <v>0.9848965461515584</v>
       </c>
       <c r="F2">
-        <v>1.036460240642048</v>
+        <v>0.9709695882130381</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054254625208147</v>
+        <v>1.033953956043802</v>
       </c>
       <c r="J2">
-        <v>1.034461478686248</v>
+        <v>0.9978897536398184</v>
       </c>
       <c r="K2">
-        <v>1.039185912036539</v>
+        <v>1.003743879480741</v>
       </c>
       <c r="L2">
-        <v>1.037951807739507</v>
+        <v>0.9965703850058572</v>
       </c>
       <c r="M2">
-        <v>1.047433962206706</v>
+        <v>0.9828487467468083</v>
       </c>
       <c r="N2">
-        <v>1.015335383877584</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.003458563329007</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>0.9949968020328047</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.013716478737943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016930736489019</v>
+        <v>0.9801628386394117</v>
       </c>
       <c r="D3">
-        <v>1.031829085123144</v>
+        <v>0.9960840433341097</v>
       </c>
       <c r="E3">
-        <v>1.030409672748625</v>
+        <v>0.9890815427210814</v>
       </c>
       <c r="F3">
-        <v>1.040360835575142</v>
+        <v>0.9812753622406704</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055373427019577</v>
+        <v>1.037428215309479</v>
       </c>
       <c r="J3">
-        <v>1.036970257385512</v>
+        <v>1.001209291359829</v>
       </c>
       <c r="K3">
-        <v>1.042070281625893</v>
+        <v>1.006767275988454</v>
       </c>
       <c r="L3">
-        <v>1.040667697286499</v>
+        <v>0.9998560601715604</v>
       </c>
       <c r="M3">
-        <v>1.050502078813736</v>
+        <v>0.9921535704661615</v>
       </c>
       <c r="N3">
-        <v>1.016170369160932</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.004559572963375</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.002361408443551</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.015851683343814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019643551487759</v>
+        <v>0.9834291357464395</v>
       </c>
       <c r="D4">
-        <v>1.034195490905234</v>
+        <v>0.9985306373362173</v>
       </c>
       <c r="E4">
-        <v>1.032669689173523</v>
+        <v>0.9916996194467721</v>
       </c>
       <c r="F4">
-        <v>1.042839353603247</v>
+        <v>0.987452249377951</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056067454760312</v>
+        <v>1.039451005197178</v>
       </c>
       <c r="J4">
-        <v>1.038557779607094</v>
+        <v>1.003266438981405</v>
       </c>
       <c r="K4">
-        <v>1.043898006661917</v>
+        <v>1.008646828680678</v>
       </c>
       <c r="L4">
-        <v>1.042389182422825</v>
+        <v>1.001899265940657</v>
       </c>
       <c r="M4">
-        <v>1.052446840985912</v>
+        <v>0.9977045115657155</v>
       </c>
       <c r="N4">
-        <v>1.016698701975337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.005241719198631</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.006754840466258</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.017181705902394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020771204211776</v>
+        <v>0.984780485382423</v>
       </c>
       <c r="D5">
-        <v>1.035180233809911</v>
+        <v>0.999547045361976</v>
       </c>
       <c r="E5">
-        <v>1.033610398887766</v>
+        <v>0.9927842539759324</v>
       </c>
       <c r="F5">
-        <v>1.043870785248969</v>
+        <v>0.9899455392039057</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056352188092431</v>
+        <v>1.04025306169306</v>
       </c>
       <c r="J5">
-        <v>1.039216832150186</v>
+        <v>1.004115463905054</v>
       </c>
       <c r="K5">
-        <v>1.044657390502091</v>
+        <v>1.009426202694</v>
       </c>
       <c r="L5">
-        <v>1.043104549574552</v>
+        <v>1.002743745470875</v>
       </c>
       <c r="M5">
-        <v>1.053254995387355</v>
+        <v>0.999939157314892</v>
       </c>
       <c r="N5">
-        <v>1.016918026647716</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.005523477503036</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.008523498478819</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.017740218433674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020959802830474</v>
+        <v>0.9850110840667643</v>
       </c>
       <c r="D6">
-        <v>1.035344993666268</v>
+        <v>0.9997241340635565</v>
       </c>
       <c r="E6">
-        <v>1.033767805376288</v>
+        <v>0.9929698370310321</v>
       </c>
       <c r="F6">
-        <v>1.044043358791916</v>
+        <v>0.9903602929614895</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056399586995573</v>
+        <v>1.040385241166383</v>
       </c>
       <c r="J6">
-        <v>1.039327007427012</v>
+        <v>1.004261934629296</v>
       </c>
       <c r="K6">
-        <v>1.044784374507597</v>
+        <v>1.009563485766879</v>
       </c>
       <c r="L6">
-        <v>1.043224180378701</v>
+        <v>1.002889039596922</v>
       </c>
       <c r="M6">
-        <v>1.053390143237371</v>
+        <v>1.000310708004332</v>
       </c>
       <c r="N6">
-        <v>1.016954690981996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.005572397883377</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.008817569717286</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.017846308447123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019658669031874</v>
+        <v>0.9834612623851404</v>
       </c>
       <c r="D7">
-        <v>1.034208688333488</v>
+        <v>0.9985643611127596</v>
       </c>
       <c r="E7">
-        <v>1.032682295534511</v>
+        <v>0.9917265688840311</v>
       </c>
       <c r="F7">
-        <v>1.042853176610541</v>
+        <v>0.9874913002879921</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056071286865808</v>
+        <v>1.039462507602931</v>
       </c>
       <c r="J7">
-        <v>1.03856661837341</v>
+        <v>1.003291456225224</v>
       </c>
       <c r="K7">
-        <v>1.0439081885783</v>
+        <v>1.008677136667124</v>
       </c>
       <c r="L7">
-        <v>1.042398773669359</v>
+        <v>1.001922847900873</v>
       </c>
       <c r="M7">
-        <v>1.052457676256535</v>
+        <v>0.9977400230398797</v>
       </c>
       <c r="N7">
-        <v>1.016701643452335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.005250879980753</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.006782946817847</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.017223878433527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014110230541485</v>
+        <v>0.9767437980600051</v>
       </c>
       <c r="D8">
-        <v>1.029372590489811</v>
+        <v>0.993539190220576</v>
       </c>
       <c r="E8">
-        <v>1.028064454966096</v>
+        <v>0.9863464016442612</v>
       </c>
       <c r="F8">
-        <v>1.037788079667423</v>
+        <v>0.9745697513195044</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054639000341747</v>
+        <v>1.035179249276468</v>
       </c>
       <c r="J8">
-        <v>1.035316895080287</v>
+        <v>0.9990488156565664</v>
       </c>
       <c r="K8">
-        <v>1.040168863917162</v>
+        <v>1.004807394395955</v>
       </c>
       <c r="L8">
-        <v>1.0388772343871</v>
+        <v>0.9977145519644652</v>
       </c>
       <c r="M8">
-        <v>1.048479405463468</v>
+        <v>0.9861055775536116</v>
       </c>
       <c r="N8">
-        <v>1.015620094354666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.003844168627743</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>0.9975745370901333</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.014492209924839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.0038887703175</v>
+        <v>0.9638494025787929</v>
       </c>
       <c r="D9">
-        <v>1.020502238684349</v>
+        <v>0.9839166950360667</v>
       </c>
       <c r="E9">
-        <v>1.019602657257713</v>
+        <v>0.9760529058970332</v>
       </c>
       <c r="F9">
-        <v>1.028498806927329</v>
+        <v>0.947245461868483</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051880077449792</v>
+        <v>1.025566627979144</v>
       </c>
       <c r="J9">
-        <v>1.029304949492909</v>
+        <v>0.9907466524375472</v>
       </c>
       <c r="K9">
-        <v>1.033271213969975</v>
+        <v>0.9972762161460532</v>
       </c>
       <c r="L9">
-        <v>1.032385504097833</v>
+        <v>0.989546836366952</v>
       </c>
       <c r="M9">
-        <v>1.041145833608951</v>
+        <v>0.9612566525506868</v>
       </c>
       <c r="N9">
-        <v>1.013619052314237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.001088404367733</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>0.9779066861205375</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.009163466689907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9967451510271154</v>
+        <v>0.9541789085802045</v>
       </c>
       <c r="D10">
-        <v>1.01433173286712</v>
+        <v>0.976715760594596</v>
       </c>
       <c r="E10">
-        <v>1.013722221726779</v>
+        <v>0.9683475749833393</v>
       </c>
       <c r="F10">
-        <v>1.022037601406061</v>
+        <v>0.9240435548304685</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049873874597851</v>
+        <v>1.016995052040021</v>
       </c>
       <c r="J10">
-        <v>1.025088504594381</v>
+        <v>0.9843363208020008</v>
       </c>
       <c r="K10">
-        <v>1.028446956651573</v>
+        <v>0.9915185421892657</v>
       </c>
       <c r="L10">
-        <v>1.027848059768005</v>
+        <v>0.9833128490494883</v>
       </c>
       <c r="M10">
-        <v>1.03602004257409</v>
+        <v>0.9399344523766809</v>
       </c>
       <c r="N10">
-        <v>1.01221562885533</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9989649535144061</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>0.9610864568125669</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.005109572169481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9935664174736676</v>
+        <v>0.948462545017711</v>
       </c>
       <c r="D11">
-        <v>1.011593463928537</v>
+        <v>0.972396157232123</v>
       </c>
       <c r="E11">
-        <v>1.011114140667722</v>
+        <v>0.9637420598214004</v>
       </c>
       <c r="F11">
-        <v>1.019170492380298</v>
+        <v>0.9094381683180919</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048963423908476</v>
+        <v>1.012039770257758</v>
       </c>
       <c r="J11">
-        <v>1.0232093120559</v>
+        <v>0.9801484358690633</v>
       </c>
       <c r="K11">
-        <v>1.02630000699908</v>
+        <v>0.9878581172293444</v>
       </c>
       <c r="L11">
-        <v>1.025829460726847</v>
+        <v>0.9793817466637562</v>
       </c>
       <c r="M11">
-        <v>1.033739715764945</v>
+        <v>0.9262970184485326</v>
       </c>
       <c r="N11">
-        <v>1.011590175831334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9976240477764645</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>0.9507780745819436</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.002555548831435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9923721741573988</v>
+        <v>0.9454349197261391</v>
       </c>
       <c r="D12">
-        <v>1.010565876883338</v>
+        <v>0.9700589603097556</v>
       </c>
       <c r="E12">
-        <v>1.010135635613453</v>
+        <v>0.9612699637389848</v>
       </c>
       <c r="F12">
-        <v>1.018094579636516</v>
+        <v>0.9014678331908264</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04861877144477</v>
+        <v>1.009666323218128</v>
       </c>
       <c r="J12">
-        <v>1.022502902726972</v>
+        <v>0.9777425893420509</v>
       </c>
       <c r="K12">
-        <v>1.025493412815856</v>
+        <v>0.9857831780559903</v>
       </c>
       <c r="L12">
-        <v>1.025071195386436</v>
+        <v>0.9771787876451704</v>
       </c>
       <c r="M12">
-        <v>1.032883137067379</v>
+        <v>0.9187620498786534</v>
       </c>
       <c r="N12">
-        <v>1.011355067596629</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.996864894846196</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>0.9451794967131695</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.001088368769432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.992628966551958</v>
+        <v>0.9444788712104288</v>
       </c>
       <c r="D13">
-        <v>1.010786779994893</v>
+        <v>0.969260144556279</v>
       </c>
       <c r="E13">
-        <v>1.010345977092957</v>
+        <v>0.9604423019368659</v>
       </c>
       <c r="F13">
-        <v>1.018325870375884</v>
+        <v>0.8991865402212253</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048692996696132</v>
+        <v>1.009557829849351</v>
       </c>
       <c r="J13">
-        <v>1.022654815861815</v>
+        <v>0.9767321191524998</v>
       </c>
       <c r="K13">
-        <v>1.025666849573633</v>
+        <v>0.9849548519401438</v>
       </c>
       <c r="L13">
-        <v>1.025234235375885</v>
+        <v>0.9763220040935052</v>
       </c>
       <c r="M13">
-        <v>1.033067316021711</v>
+        <v>0.9164869061816849</v>
       </c>
       <c r="N13">
-        <v>1.01140562722609</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9965646849972646</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>0.9436835920529261</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.000500047580926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9934679808172436</v>
+        <v>0.9447612472254318</v>
       </c>
       <c r="D14">
-        <v>1.011508739871332</v>
+        <v>0.9694093655500753</v>
       </c>
       <c r="E14">
-        <v>1.011033458751398</v>
+        <v>0.9606179720754187</v>
       </c>
       <c r="F14">
-        <v>1.019081783407765</v>
+        <v>0.900239735108364</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048935068015935</v>
+        <v>1.010532699452911</v>
       </c>
       <c r="J14">
-        <v>1.023151093456028</v>
+        <v>0.9766665817867953</v>
       </c>
       <c r="K14">
-        <v>1.026233522185282</v>
+        <v>0.9849499530243139</v>
       </c>
       <c r="L14">
-        <v>1.025766957280716</v>
+        <v>0.9763408608688631</v>
       </c>
       <c r="M14">
-        <v>1.03366910835796</v>
+        <v>0.9173446160101587</v>
       </c>
       <c r="N14">
-        <v>1.01157079928166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9965654180991305</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>0.9445486373790261</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.00049807733944</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9939831126992037</v>
+        <v>0.9453206797165083</v>
       </c>
       <c r="D15">
-        <v>1.011952160150576</v>
+        <v>0.9698160234172253</v>
       </c>
       <c r="E15">
-        <v>1.01145573295793</v>
+        <v>0.9610530744788868</v>
       </c>
       <c r="F15">
-        <v>1.019546060512329</v>
+        <v>0.9018456347809738</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049083352595822</v>
+        <v>1.011267858442379</v>
       </c>
       <c r="J15">
-        <v>1.023455742940236</v>
+        <v>0.9769932716889628</v>
       </c>
       <c r="K15">
-        <v>1.026581446626472</v>
+        <v>0.9852552948261607</v>
       </c>
       <c r="L15">
-        <v>1.026094051091586</v>
+        <v>0.9766725889405541</v>
       </c>
       <c r="M15">
-        <v>1.034038611994605</v>
+        <v>0.9188068008747141</v>
       </c>
       <c r="N15">
-        <v>1.011672194233364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9966785172860115</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>0.9457443704688185</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.000720141533357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9969542551479204</v>
+        <v>0.9500286200816673</v>
       </c>
       <c r="D16">
-        <v>1.014512022156184</v>
+        <v>0.9733532785018711</v>
       </c>
       <c r="E16">
-        <v>1.013893970460895</v>
+        <v>0.9648232393761852</v>
       </c>
       <c r="F16">
-        <v>1.022226376960283</v>
+        <v>0.9144988044261818</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049933401964803</v>
+        <v>1.015801045821501</v>
       </c>
       <c r="J16">
-        <v>1.025212063859291</v>
+        <v>0.9802917645179499</v>
       </c>
       <c r="K16">
-        <v>1.028588186313787</v>
+        <v>0.988182763141228</v>
       </c>
       <c r="L16">
-        <v>1.027980861266047</v>
+        <v>0.9798194117334522</v>
       </c>
       <c r="M16">
-        <v>1.036170063134847</v>
+        <v>0.9305629514341983</v>
       </c>
       <c r="N16">
-        <v>1.012256753944773</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.9977633572201454</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>0.9549939758721183</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.002793450934556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.998794621235612</v>
+        <v>0.9533978774097871</v>
       </c>
       <c r="D17">
-        <v>1.016099638436206</v>
+        <v>0.9759173758463946</v>
       </c>
       <c r="E17">
-        <v>1.015406546877421</v>
+        <v>0.9675477846545527</v>
       </c>
       <c r="F17">
-        <v>1.023888741276892</v>
+        <v>0.9230418364770656</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050455301802809</v>
+        <v>1.018532154359398</v>
       </c>
       <c r="J17">
-        <v>1.026299199307791</v>
+        <v>0.9827726943704409</v>
       </c>
       <c r="K17">
-        <v>1.029831150847319</v>
+        <v>0.9903612611574399</v>
       </c>
       <c r="L17">
-        <v>1.029149730398941</v>
+        <v>0.9821497945730318</v>
       </c>
       <c r="M17">
-        <v>1.037490489529072</v>
+        <v>0.9385486533286301</v>
       </c>
       <c r="N17">
-        <v>1.012618596183765</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.9985677637880674</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>0.9611678996168668</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.004336543570702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9998598740940069</v>
+        <v>0.9559556465255861</v>
       </c>
       <c r="D18">
-        <v>1.017019296742841</v>
+        <v>0.9778908930450492</v>
       </c>
       <c r="E18">
-        <v>1.016282875614928</v>
+        <v>0.9696417825919781</v>
       </c>
       <c r="F18">
-        <v>1.024851714394509</v>
+        <v>0.9292659154753097</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05075570276977</v>
+        <v>1.020231545826162</v>
       </c>
       <c r="J18">
-        <v>1.026928176262386</v>
+        <v>0.9847924550551211</v>
       </c>
       <c r="K18">
-        <v>1.030550582217582</v>
+        <v>0.9921024928514014</v>
       </c>
       <c r="L18">
-        <v>1.02982634237666</v>
+        <v>0.9840059552279146</v>
       </c>
       <c r="M18">
-        <v>1.038254833273416</v>
+        <v>0.9444285529410972</v>
       </c>
       <c r="N18">
-        <v>1.012827947336789</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9992083279957816</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>0.9655610495285802</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.005555596149645</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000221726429174</v>
+        <v>0.9576063169722872</v>
       </c>
       <c r="D19">
-        <v>1.017331810314832</v>
+        <v>0.979200523458142</v>
       </c>
       <c r="E19">
-        <v>1.016580688502557</v>
+        <v>0.9710155371108443</v>
       </c>
       <c r="F19">
-        <v>1.025178949632782</v>
+        <v>0.9330387544398192</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050857456621276</v>
+        <v>1.021023921416661</v>
       </c>
       <c r="J19">
-        <v>1.027141781558193</v>
+        <v>0.986227794399296</v>
       </c>
       <c r="K19">
-        <v>1.0307949570439</v>
+        <v>0.9933216778123342</v>
       </c>
       <c r="L19">
-        <v>1.030056183761453</v>
+        <v>0.9852867197605674</v>
       </c>
       <c r="M19">
-        <v>1.038514476880144</v>
+        <v>0.9480515054660502</v>
       </c>
       <c r="N19">
-        <v>1.012899044899257</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9996490010190473</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>0.9680744238339141</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.006424328612928</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.998598020429972</v>
+        <v>0.9567812855378733</v>
       </c>
       <c r="D20">
-        <v>1.015929964745708</v>
+        <v>0.9786768548191711</v>
       </c>
       <c r="E20">
-        <v>1.015244878503067</v>
+        <v>0.9704236827370281</v>
       </c>
       <c r="F20">
-        <v>1.023711077415545</v>
+        <v>0.9304900705274008</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050399723503645</v>
+        <v>1.019411047397281</v>
       </c>
       <c r="J20">
-        <v>1.026183093218233</v>
+        <v>0.9860862430946914</v>
       </c>
       <c r="K20">
-        <v>1.029698371372187</v>
+        <v>0.9931053030485645</v>
       </c>
       <c r="L20">
-        <v>1.029024859164996</v>
+        <v>0.9850073271171274</v>
       </c>
       <c r="M20">
-        <v>1.03734942717863</v>
+        <v>0.9458761741146829</v>
       </c>
       <c r="N20">
-        <v>1.012579951156717</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9995476941928493</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>0.9657775933481133</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.006275401678377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9932212908973864</v>
+        <v>0.9493557377520638</v>
       </c>
       <c r="D21">
-        <v>1.011296433907744</v>
+        <v>0.9731532624800279</v>
       </c>
       <c r="E21">
-        <v>1.0108312854688</v>
+        <v>0.9645158600668955</v>
       </c>
       <c r="F21">
-        <v>1.018859492220089</v>
+        <v>0.9111177196873466</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048863964319658</v>
+        <v>1.011975415222307</v>
       </c>
       <c r="J21">
-        <v>1.023005186821498</v>
+        <v>0.9811348424834252</v>
       </c>
       <c r="K21">
-        <v>1.026066906411659</v>
+        <v>0.9886617522910052</v>
       </c>
       <c r="L21">
-        <v>1.025610320856438</v>
+        <v>0.9802021865662329</v>
       </c>
       <c r="M21">
-        <v>1.033492163076675</v>
+        <v>0.9280042420778156</v>
       </c>
       <c r="N21">
-        <v>1.011522238158881</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9978979710510492</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>0.9515864263121198</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.003136795689252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9897621364375324</v>
+        <v>0.9442016022060473</v>
       </c>
       <c r="D22">
-        <v>1.008322291759793</v>
+        <v>0.969300947935682</v>
       </c>
       <c r="E22">
-        <v>1.007999637604869</v>
+        <v>0.9604072942787854</v>
       </c>
       <c r="F22">
-        <v>1.015745525999462</v>
+        <v>0.8963364973216524</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047860827246363</v>
+        <v>1.006178686315457</v>
       </c>
       <c r="J22">
-        <v>1.020958350433489</v>
+        <v>0.9776023904760027</v>
       </c>
       <c r="K22">
-        <v>1.023730665806835</v>
+        <v>0.985506116378387</v>
       </c>
       <c r="L22">
-        <v>1.023414268580545</v>
+        <v>0.9768061218709743</v>
       </c>
       <c r="M22">
-        <v>1.031011383825344</v>
+        <v>0.9142850288322488</v>
       </c>
       <c r="N22">
-        <v>1.010841021979542</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.996722288447795</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>0.9407268792641089</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.000891339823026</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9916035865645739</v>
+        <v>0.9469686263331066</v>
       </c>
       <c r="D23">
-        <v>1.009904883536585</v>
+        <v>0.9713613444607083</v>
       </c>
       <c r="E23">
-        <v>1.009506278837141</v>
+        <v>0.9626124488801444</v>
       </c>
       <c r="F23">
-        <v>1.017402507574737</v>
+        <v>0.9044736258016139</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048396237521706</v>
+        <v>1.009387656975591</v>
       </c>
       <c r="J23">
-        <v>1.02204816698508</v>
+        <v>0.9795035977249066</v>
       </c>
       <c r="K23">
-        <v>1.024974316792811</v>
+        <v>0.9871957786807293</v>
       </c>
       <c r="L23">
-        <v>1.024583232909637</v>
+        <v>0.9786318409265493</v>
       </c>
       <c r="M23">
-        <v>1.032331908044036</v>
+        <v>0.9218450910274107</v>
       </c>
       <c r="N23">
-        <v>1.011203723886222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9973540872904586</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>0.9467111328351383</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.002076026788713</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.998686881167628</v>
+        <v>0.9569686371506853</v>
       </c>
       <c r="D24">
-        <v>1.016006652636722</v>
+        <v>0.9788079901221493</v>
       </c>
       <c r="E24">
-        <v>1.015317947779447</v>
+        <v>0.9705747444713738</v>
       </c>
       <c r="F24">
-        <v>1.023791376598204</v>
+        <v>0.9309502878213809</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050424849335885</v>
+        <v>1.019545205524757</v>
       </c>
       <c r="J24">
-        <v>1.026235572391598</v>
+        <v>0.9862300418369169</v>
       </c>
       <c r="K24">
-        <v>1.02975838588157</v>
+        <v>0.9932177705490054</v>
       </c>
       <c r="L24">
-        <v>1.029081299049051</v>
+        <v>0.9851390866862293</v>
       </c>
       <c r="M24">
-        <v>1.037413185195232</v>
+        <v>0.9463091519157656</v>
       </c>
       <c r="N24">
-        <v>1.012597418442301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.99958974685693</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>0.966075458855994</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.006326389603102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006586952861801</v>
+        <v>0.9673506179448839</v>
       </c>
       <c r="D25">
-        <v>1.022838984556225</v>
+        <v>0.9865404195045681</v>
       </c>
       <c r="E25">
-        <v>1.021830785353778</v>
+        <v>0.9788461662282514</v>
       </c>
       <c r="F25">
-        <v>1.030945784560587</v>
+        <v>0.9549917927409161</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052622059448222</v>
+        <v>1.028355874551769</v>
       </c>
       <c r="J25">
-        <v>1.03089465517063</v>
+        <v>0.9930290359214159</v>
       </c>
       <c r="K25">
-        <v>1.035092806275063</v>
+        <v>0.9993513345278348</v>
       </c>
       <c r="L25">
-        <v>1.034099401788566</v>
+        <v>0.9917819915084014</v>
       </c>
       <c r="M25">
-        <v>1.043081976024341</v>
+        <v>0.9683314436765703</v>
       </c>
       <c r="N25">
-        <v>1.014148186532982</v>
+        <v>1.00184775660018</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>0.9835064295044027</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.010660480648311</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_35/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9749325248000038</v>
+        <v>0.9776968753505746</v>
       </c>
       <c r="D2">
-        <v>0.9921744346442311</v>
+        <v>0.9957405116147962</v>
       </c>
       <c r="E2">
-        <v>0.9848965461515584</v>
+        <v>0.9872836433310213</v>
       </c>
       <c r="F2">
-        <v>0.9709695882130381</v>
+        <v>0.9720561545913468</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.033953956043802</v>
+        <v>1.03408260080782</v>
       </c>
       <c r="J2">
-        <v>0.9978897536398184</v>
+        <v>1.000565766448141</v>
       </c>
       <c r="K2">
-        <v>1.003743879480741</v>
+        <v>1.007259508585859</v>
       </c>
       <c r="L2">
-        <v>0.9965703850058572</v>
+        <v>0.9989230268260205</v>
       </c>
       <c r="M2">
-        <v>0.9828487467468083</v>
+        <v>0.9839190250883342</v>
       </c>
       <c r="N2">
-        <v>1.003458563329007</v>
+        <v>1.007536017868363</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>0.9949968020328047</v>
+        <v>0.9958439132512394</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.013716478737943</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.016211563032831</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.014164465957781</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9801628386394117</v>
+        <v>0.9825921776747729</v>
       </c>
       <c r="D3">
-        <v>0.9960840433341097</v>
+        <v>0.9991948521854247</v>
       </c>
       <c r="E3">
-        <v>0.9890815427210814</v>
+        <v>0.9911816041271938</v>
       </c>
       <c r="F3">
-        <v>0.9812753622406704</v>
+        <v>0.9822129246636283</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.037428215309479</v>
+        <v>1.037535693158197</v>
       </c>
       <c r="J3">
-        <v>1.001209291359829</v>
+        <v>1.00356891520547</v>
       </c>
       <c r="K3">
-        <v>1.006767275988454</v>
+        <v>1.009838045404853</v>
       </c>
       <c r="L3">
-        <v>0.9998560601715604</v>
+        <v>1.001928575471909</v>
       </c>
       <c r="M3">
-        <v>0.9921535704661615</v>
+        <v>0.993078569701036</v>
       </c>
       <c r="N3">
-        <v>1.004559572963375</v>
+        <v>1.008327726483329</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.002361408443551</v>
+        <v>1.003093524495501</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.015851683343814</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.018031891560012</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.014749534426977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9834291357464395</v>
+        <v>0.9856532323573838</v>
       </c>
       <c r="D4">
-        <v>0.9985306373362173</v>
+        <v>1.001360272929906</v>
       </c>
       <c r="E4">
-        <v>0.9916996194467721</v>
+        <v>0.9936234544128307</v>
       </c>
       <c r="F4">
-        <v>0.987452249377951</v>
+        <v>0.9883019436710845</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.039451005197178</v>
+        <v>1.039546680800629</v>
       </c>
       <c r="J4">
-        <v>1.003266438981405</v>
+        <v>1.005431188624126</v>
       </c>
       <c r="K4">
-        <v>1.008646828680678</v>
+        <v>1.011442308334085</v>
       </c>
       <c r="L4">
-        <v>1.001899265940657</v>
+        <v>1.003799452881151</v>
       </c>
       <c r="M4">
-        <v>0.9977045115657155</v>
+        <v>0.9985436349176157</v>
       </c>
       <c r="N4">
-        <v>1.005241719198631</v>
+        <v>1.00881860053733</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.006754840466258</v>
+        <v>1.00741898310529</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.017181705902394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.019167312971152</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.015109883058674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.984780485382423</v>
+        <v>0.9869204127391277</v>
       </c>
       <c r="D5">
-        <v>0.999547045361976</v>
+        <v>1.002260937590812</v>
       </c>
       <c r="E5">
-        <v>0.9927842539759324</v>
+        <v>0.9946357276160362</v>
       </c>
       <c r="F5">
-        <v>0.9899455392039057</v>
+        <v>0.9907598789908609</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.04025306169306</v>
+        <v>1.040344123570128</v>
       </c>
       <c r="J5">
-        <v>1.004115463905054</v>
+        <v>1.006200056420436</v>
       </c>
       <c r="K5">
-        <v>1.009426202694</v>
+        <v>1.012108234187269</v>
       </c>
       <c r="L5">
-        <v>1.002743745470875</v>
+        <v>1.004573091103077</v>
       </c>
       <c r="M5">
-        <v>0.999939157314892</v>
+        <v>1.000743682400536</v>
       </c>
       <c r="N5">
-        <v>1.005523477503036</v>
+        <v>1.009021444735619</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.008523498478819</v>
+        <v>1.009160255809038</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.017740218433674</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.019646299675279</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.015259047683933</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9850110840667643</v>
+        <v>0.9871365544409112</v>
       </c>
       <c r="D6">
-        <v>0.9997241340635565</v>
+        <v>1.0024181966602</v>
       </c>
       <c r="E6">
-        <v>0.9929698370310321</v>
+        <v>0.9948088646525514</v>
       </c>
       <c r="F6">
-        <v>0.9903602929614895</v>
+        <v>0.9911686138299275</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.040385241166383</v>
+        <v>1.04047552789719</v>
       </c>
       <c r="J6">
-        <v>1.004261934629296</v>
+        <v>1.00633273668339</v>
       </c>
       <c r="K6">
-        <v>1.009563485766879</v>
+        <v>1.01222606979755</v>
       </c>
       <c r="L6">
-        <v>1.002889039596922</v>
+        <v>1.004706192702295</v>
       </c>
       <c r="M6">
-        <v>1.000310708004332</v>
+        <v>1.001109338839935</v>
       </c>
       <c r="N6">
-        <v>1.005572397883377</v>
+        <v>1.009056683403413</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.008817569717286</v>
+        <v>1.009449661638823</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.017846308447123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.019739496012374</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.015285939175759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9834612623851404</v>
+        <v>0.9856908839195215</v>
       </c>
       <c r="D7">
-        <v>0.9985643611127596</v>
+        <v>1.00139714069538</v>
       </c>
       <c r="E7">
-        <v>0.9917265688840311</v>
+        <v>0.9936553203617515</v>
       </c>
       <c r="F7">
-        <v>0.9874913002879921</v>
+        <v>0.9883430590791669</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.039462507602931</v>
+        <v>1.039558406434318</v>
       </c>
       <c r="J7">
-        <v>1.003291456225224</v>
+        <v>1.005461610977998</v>
       </c>
       <c r="K7">
-        <v>1.008677136667124</v>
+        <v>1.011475736850153</v>
       </c>
       <c r="L7">
-        <v>1.001922847900873</v>
+        <v>1.00382790065231</v>
       </c>
       <c r="M7">
-        <v>0.9977400230398797</v>
+        <v>0.998581189851126</v>
       </c>
       <c r="N7">
-        <v>1.005250879980753</v>
+        <v>1.008853275218087</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.006782946817847</v>
+        <v>1.007448706767498</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.017223878433527</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.01921366759074</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.015119354754391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9767437980600051</v>
+        <v>0.9794150612811752</v>
       </c>
       <c r="D8">
-        <v>0.993539190220576</v>
+        <v>0.9969655900374658</v>
       </c>
       <c r="E8">
-        <v>0.9863464016442612</v>
+        <v>0.9886544871169036</v>
       </c>
       <c r="F8">
-        <v>0.9745697513195044</v>
+        <v>0.9756128320489427</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.035179249276468</v>
+        <v>1.035301321395957</v>
       </c>
       <c r="J8">
-        <v>0.9990488156565664</v>
+        <v>1.001637719519288</v>
       </c>
       <c r="K8">
-        <v>1.004807394395955</v>
+        <v>1.008186821828234</v>
       </c>
       <c r="L8">
-        <v>0.9977145519644652</v>
+        <v>0.9999903658601013</v>
       </c>
       <c r="M8">
-        <v>0.9861055775536116</v>
+        <v>0.9871335999154319</v>
       </c>
       <c r="N8">
-        <v>1.003844168627743</v>
+        <v>1.007898581110519</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>0.9975745370901333</v>
+        <v>0.9983881998505117</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.014492209924839</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.016893206163977</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.014379044015149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9638494025787929</v>
+        <v>0.9673798729266284</v>
       </c>
       <c r="D9">
-        <v>0.9839166950360667</v>
+        <v>0.988491978126563</v>
       </c>
       <c r="E9">
-        <v>0.9760529058970332</v>
+        <v>0.9790945232748161</v>
       </c>
       <c r="F9">
-        <v>0.947245461868483</v>
+        <v>0.9487038869952805</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.025566627979144</v>
+        <v>1.025754850071438</v>
       </c>
       <c r="J9">
-        <v>0.9907466524375472</v>
+        <v>0.9941395571975788</v>
       </c>
       <c r="K9">
-        <v>0.9972762161460532</v>
+        <v>1.001774565782077</v>
       </c>
       <c r="L9">
-        <v>0.989546836366952</v>
+        <v>0.9925361349696301</v>
       </c>
       <c r="M9">
-        <v>0.9612566525506868</v>
+        <v>0.9626879057234894</v>
       </c>
       <c r="N9">
-        <v>1.001088404367733</v>
+        <v>1.005930255635746</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>0.9779066861205375</v>
+        <v>0.9790395367659416</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.009163466689907</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.012355481791379</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.012899809520617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9541789085802045</v>
+        <v>0.9584289561241212</v>
       </c>
       <c r="D10">
-        <v>0.976715760594596</v>
+        <v>0.982214274357842</v>
       </c>
       <c r="E10">
-        <v>0.9683475749833393</v>
+        <v>0.9720009045869796</v>
       </c>
       <c r="F10">
-        <v>0.9240435548304685</v>
+        <v>0.9259120992638644</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.016995052040021</v>
+        <v>1.017262062902573</v>
       </c>
       <c r="J10">
-        <v>0.9843363208020008</v>
+        <v>0.988394852221231</v>
       </c>
       <c r="K10">
-        <v>0.9915185421892657</v>
+        <v>0.996912256518345</v>
       </c>
       <c r="L10">
-        <v>0.9833128490494883</v>
+        <v>0.9868947875377001</v>
       </c>
       <c r="M10">
-        <v>0.9399344523766809</v>
+        <v>0.9417615769701997</v>
       </c>
       <c r="N10">
-        <v>0.9989649535144061</v>
+        <v>1.004536194986737</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>0.9610864568125669</v>
+        <v>0.9625325776190585</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.005109572169481</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.008936436335207</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.011756306521597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.948462545017711</v>
+        <v>0.9532125239714603</v>
       </c>
       <c r="D11">
-        <v>0.972396157232123</v>
+        <v>0.9785142532570399</v>
       </c>
       <c r="E11">
-        <v>0.9637420598214004</v>
+        <v>0.967818296202149</v>
       </c>
       <c r="F11">
-        <v>0.9094381683180919</v>
+        <v>0.9116378348409873</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.012039770257758</v>
+        <v>1.012375023471409</v>
       </c>
       <c r="J11">
-        <v>0.9801484358690633</v>
+        <v>0.9846701127887654</v>
       </c>
       <c r="K11">
-        <v>0.9878581172293444</v>
+        <v>0.993853061780435</v>
       </c>
       <c r="L11">
-        <v>0.9793817466637562</v>
+        <v>0.9833737480295779</v>
       </c>
       <c r="M11">
-        <v>0.9262970184485326</v>
+        <v>0.9284435066894147</v>
       </c>
       <c r="N11">
-        <v>0.9976240477764645</v>
+        <v>1.003817715729407</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>0.9507780745819436</v>
+        <v>0.9524759356270044</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.002555548831435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.006810741297704</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.011033932963136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9454349197261391</v>
+        <v>0.9504562192164813</v>
       </c>
       <c r="D12">
-        <v>0.9700589603097556</v>
+        <v>0.9765174391161013</v>
       </c>
       <c r="E12">
-        <v>0.9612699637389848</v>
+        <v>0.9655743909716356</v>
       </c>
       <c r="F12">
-        <v>0.9014678331908264</v>
+        <v>0.9038710555822244</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.009666323218128</v>
+        <v>1.01004440382215</v>
       </c>
       <c r="J12">
-        <v>0.9777425893420509</v>
+        <v>0.9825161375100003</v>
       </c>
       <c r="K12">
-        <v>0.9857831780559903</v>
+        <v>0.9921087933519348</v>
       </c>
       <c r="L12">
-        <v>0.9771787876451704</v>
+        <v>0.9813922482329408</v>
       </c>
       <c r="M12">
-        <v>0.9187620498786534</v>
+        <v>0.9211048244297124</v>
       </c>
       <c r="N12">
-        <v>0.996864894846196</v>
+        <v>1.003378565877661</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>0.9451794967131695</v>
+        <v>0.9470318503853247</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.001088368769432</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.00557742035473</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.01061520171794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9444788712104288</v>
+        <v>0.9495768805272653</v>
       </c>
       <c r="D13">
-        <v>0.969260144556279</v>
+        <v>0.975829488716449</v>
       </c>
       <c r="E13">
-        <v>0.9604423019368659</v>
+        <v>0.9648095549270103</v>
       </c>
       <c r="F13">
-        <v>0.8991865402212253</v>
+        <v>0.9016559414036778</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.009557829849351</v>
+        <v>1.009945905933869</v>
       </c>
       <c r="J13">
-        <v>0.9767321191524998</v>
+        <v>0.9815788230793326</v>
       </c>
       <c r="K13">
-        <v>0.9849548519401438</v>
+        <v>0.991389237922036</v>
       </c>
       <c r="L13">
-        <v>0.9763220040935052</v>
+        <v>0.980597074902783</v>
       </c>
       <c r="M13">
-        <v>0.9164869061816849</v>
+        <v>0.9188939921208398</v>
       </c>
       <c r="N13">
-        <v>0.9965646849972646</v>
+        <v>1.003131708891058</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>0.9436835920529261</v>
+        <v>0.9455862207941328</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.000500047580926</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.005065793718607</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.010437583481731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9447612472254318</v>
+        <v>0.9498231299816462</v>
       </c>
       <c r="D14">
-        <v>0.9694093655500753</v>
+        <v>0.9759506448577867</v>
       </c>
       <c r="E14">
-        <v>0.9606179720754187</v>
+        <v>0.9649531916289762</v>
       </c>
       <c r="F14">
-        <v>0.900239735108364</v>
+        <v>0.9026873726436048</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.010532699452911</v>
+        <v>1.010911188823416</v>
       </c>
       <c r="J14">
-        <v>0.9766665817867953</v>
+        <v>0.9814821782286454</v>
       </c>
       <c r="K14">
-        <v>0.9849499530243139</v>
+        <v>0.9913583948739756</v>
       </c>
       <c r="L14">
-        <v>0.9763408608688631</v>
+        <v>0.9805856355097972</v>
       </c>
       <c r="M14">
-        <v>0.9173446160101587</v>
+        <v>0.9197313810515586</v>
       </c>
       <c r="N14">
-        <v>0.9965654180991305</v>
+        <v>1.00304917296887</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>0.9445486373790261</v>
+        <v>0.9464349151527351</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.00049807733944</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.005045613549385</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.010424829707622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9453206797165083</v>
+        <v>0.950327820646736</v>
       </c>
       <c r="D15">
-        <v>0.9698160234172253</v>
+        <v>0.976295820967665</v>
       </c>
       <c r="E15">
-        <v>0.9610530744788868</v>
+        <v>0.9653415728531719</v>
       </c>
       <c r="F15">
-        <v>0.9018456347809738</v>
+        <v>0.9042535203090892</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.011267858442379</v>
+        <v>1.011636153458257</v>
       </c>
       <c r="J15">
-        <v>0.9769932716889628</v>
+        <v>0.9817590277244318</v>
       </c>
       <c r="K15">
-        <v>0.9852552948261607</v>
+        <v>0.9916045472872723</v>
       </c>
       <c r="L15">
-        <v>0.9766725889405541</v>
+        <v>0.9808723386590532</v>
       </c>
       <c r="M15">
-        <v>0.9188068008747141</v>
+        <v>0.9211555074369986</v>
       </c>
       <c r="N15">
-        <v>0.9966785172860115</v>
+        <v>1.003083166184891</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>0.9457443704688185</v>
+        <v>0.9476005197962267</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.000720141533357</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.005226372766853</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.010482549270009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9500286200816673</v>
+        <v>0.954609046903013</v>
       </c>
       <c r="D16">
-        <v>0.9733532785018711</v>
+        <v>0.9793186478219424</v>
       </c>
       <c r="E16">
-        <v>0.9648232393761852</v>
+        <v>0.9687499842890803</v>
       </c>
       <c r="F16">
-        <v>0.9144988044261818</v>
+        <v>0.9166048275195876</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.015801045821501</v>
+        <v>1.016104183653488</v>
       </c>
       <c r="J16">
-        <v>0.9802917645179499</v>
+        <v>0.9846639782607144</v>
       </c>
       <c r="K16">
-        <v>0.988182763141228</v>
+        <v>0.9940338179311341</v>
       </c>
       <c r="L16">
-        <v>0.9798194117334522</v>
+        <v>0.9836689447058531</v>
       </c>
       <c r="M16">
-        <v>0.9305629514341983</v>
+        <v>0.9326211431045003</v>
       </c>
       <c r="N16">
-        <v>0.9977633572201454</v>
+        <v>1.003634215173201</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>0.9549939758721183</v>
+        <v>0.9566206081999646</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.002793450934556</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.006947650736973</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.011062604207934</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9533978774097871</v>
+        <v>0.9576923459252986</v>
       </c>
       <c r="D17">
-        <v>0.9759173758463946</v>
+        <v>0.9815241548575804</v>
       </c>
       <c r="E17">
-        <v>0.9675477846545527</v>
+        <v>0.9712324438501568</v>
       </c>
       <c r="F17">
-        <v>0.9230418364770656</v>
+        <v>0.9249600495424412</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.018532154359398</v>
+        <v>1.018799257443761</v>
       </c>
       <c r="J17">
-        <v>0.9827726943704409</v>
+        <v>0.9868793752333577</v>
       </c>
       <c r="K17">
-        <v>0.9903612611574399</v>
+        <v>0.9958640778860949</v>
       </c>
       <c r="L17">
-        <v>0.9821497945730318</v>
+        <v>0.9857644015203606</v>
       </c>
       <c r="M17">
-        <v>0.9385486533286301</v>
+        <v>0.9404254868921107</v>
       </c>
       <c r="N17">
-        <v>0.9985677637880674</v>
+        <v>1.004110889375442</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>0.9611678996168668</v>
+        <v>0.9626513782215456</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.004336543570702</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.008244710880114</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.011500996309498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9559556465255861</v>
+        <v>0.9600423087599779</v>
       </c>
       <c r="D18">
-        <v>0.9778908930450492</v>
+        <v>0.9832266562911276</v>
       </c>
       <c r="E18">
-        <v>0.9696417825919781</v>
+        <v>0.9731510473335483</v>
       </c>
       <c r="F18">
-        <v>0.9292659154753097</v>
+        <v>0.9310518418005109</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.020231545826162</v>
+        <v>1.02047561962706</v>
       </c>
       <c r="J18">
-        <v>0.9847924550551211</v>
+        <v>0.9887047561704391</v>
       </c>
       <c r="K18">
-        <v>0.9921024928514014</v>
+        <v>0.9973413400262739</v>
       </c>
       <c r="L18">
-        <v>0.9840059552279146</v>
+        <v>0.9874499015540663</v>
       </c>
       <c r="M18">
-        <v>0.9444285529410972</v>
+        <v>0.9461772265341878</v>
       </c>
       <c r="N18">
-        <v>0.9992083279957816</v>
+        <v>1.004530952410779</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>0.9655610495285802</v>
+        <v>0.9669435652983156</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.005555596149645</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.009275974100156</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.011855282146602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9576063169722872</v>
+        <v>0.9615625442109422</v>
       </c>
       <c r="D19">
-        <v>0.979200523458142</v>
+        <v>0.9843585998804449</v>
       </c>
       <c r="E19">
-        <v>0.9710155371108443</v>
+        <v>0.9744154205485066</v>
       </c>
       <c r="F19">
-        <v>0.9330387544398192</v>
+        <v>0.934742445865918</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.021023921416661</v>
+        <v>1.021255029345868</v>
       </c>
       <c r="J19">
-        <v>0.986227794399296</v>
+        <v>0.9900170134063337</v>
       </c>
       <c r="K19">
-        <v>0.9933216778123342</v>
+        <v>0.9983868725845149</v>
       </c>
       <c r="L19">
-        <v>0.9852867197605674</v>
+        <v>0.9886238857385444</v>
       </c>
       <c r="M19">
-        <v>0.9480515054660502</v>
+        <v>0.9497202261134858</v>
       </c>
       <c r="N19">
-        <v>0.9996490010190473</v>
+        <v>1.004841249390104</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>0.9680744238339141</v>
+        <v>0.9693942334866654</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.006424328612928</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.01002250384875</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.012106707476741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9567812855378733</v>
+        <v>0.9608103840070744</v>
       </c>
       <c r="D20">
-        <v>0.9786768548191711</v>
+        <v>0.9839051898142436</v>
       </c>
       <c r="E20">
-        <v>0.9704236827370281</v>
+        <v>0.9738884754945947</v>
       </c>
       <c r="F20">
-        <v>0.9304900705274008</v>
+        <v>0.9322283777699573</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.019411047397281</v>
+        <v>1.019652035954018</v>
       </c>
       <c r="J20">
-        <v>0.9860862430946914</v>
+        <v>0.9899403091345785</v>
       </c>
       <c r="K20">
-        <v>0.9931053030485645</v>
+        <v>0.9982370766773792</v>
       </c>
       <c r="L20">
-        <v>0.9850073271171274</v>
+        <v>0.9884065479408872</v>
       </c>
       <c r="M20">
-        <v>0.9458761741146829</v>
+        <v>0.9475776555141018</v>
       </c>
       <c r="N20">
-        <v>0.9995476941928493</v>
+        <v>1.004845938789227</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>0.9657775933481133</v>
+        <v>0.9671242811182632</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.006275401678377</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.009921028140285</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.012072229235614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9493557377520638</v>
+        <v>0.9540647859386875</v>
       </c>
       <c r="D21">
-        <v>0.9731532624800279</v>
+        <v>0.9791894625014342</v>
       </c>
       <c r="E21">
-        <v>0.9645158600668955</v>
+        <v>0.9685618915916979</v>
       </c>
       <c r="F21">
-        <v>0.9111177196873466</v>
+        <v>0.9132771353197322</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.011975415222307</v>
+        <v>1.012305628861887</v>
       </c>
       <c r="J21">
-        <v>0.9811348424834252</v>
+        <v>0.9856170078303548</v>
       </c>
       <c r="K21">
-        <v>0.9886617522910052</v>
+        <v>0.9945761218619807</v>
       </c>
       <c r="L21">
-        <v>0.9802021865662329</v>
+        <v>0.9841643925834929</v>
       </c>
       <c r="M21">
-        <v>0.9280042420778156</v>
+        <v>0.9301114615772407</v>
       </c>
       <c r="N21">
-        <v>0.9978979710510492</v>
+        <v>1.004122885160607</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>0.9515864263121198</v>
+        <v>0.95325439116662</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.003136795689252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.007336171482097</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.011207042225586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9442016022060473</v>
+        <v>0.9493936716522654</v>
       </c>
       <c r="D22">
-        <v>0.969300947935682</v>
+        <v>0.9759088883064048</v>
       </c>
       <c r="E22">
-        <v>0.9604072942787854</v>
+        <v>0.9648650302184149</v>
       </c>
       <c r="F22">
-        <v>0.8963364973216524</v>
+        <v>0.8988612018711257</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.006178686315457</v>
+        <v>1.006599729192285</v>
       </c>
       <c r="J22">
-        <v>0.9776023904760027</v>
+        <v>0.9825277112801721</v>
       </c>
       <c r="K22">
-        <v>0.985506116378387</v>
+        <v>0.9919731935202146</v>
       </c>
       <c r="L22">
-        <v>0.9768061218709743</v>
+        <v>0.9811661980028458</v>
       </c>
       <c r="M22">
-        <v>0.9142850288322488</v>
+        <v>0.9167429890507048</v>
       </c>
       <c r="N22">
-        <v>0.996722288447795</v>
+        <v>1.003566637796161</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>0.9407268792641089</v>
+        <v>0.9426725136907961</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.000891339823026</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.005480321467169</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.010583080911261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9469686263331066</v>
+        <v>0.9518873634424185</v>
       </c>
       <c r="D23">
-        <v>0.9713613444607083</v>
+        <v>0.9776511725852673</v>
       </c>
       <c r="E23">
-        <v>0.9626124488801444</v>
+        <v>0.9668368800406949</v>
       </c>
       <c r="F23">
-        <v>0.9044736258016139</v>
+        <v>0.9067858376252438</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.009387656975591</v>
+        <v>1.009754734161807</v>
       </c>
       <c r="J23">
-        <v>0.9795035977249066</v>
+        <v>0.9841780580662989</v>
       </c>
       <c r="K23">
-        <v>0.9871957786807293</v>
+        <v>0.9933553336040898</v>
       </c>
       <c r="L23">
-        <v>0.9786318409265493</v>
+        <v>0.9827664113984593</v>
       </c>
       <c r="M23">
-        <v>0.9218450910274107</v>
+        <v>0.9240990590796244</v>
       </c>
       <c r="N23">
-        <v>0.9973540872904586</v>
+        <v>1.003824251999686</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>0.9467111328351383</v>
+        <v>0.948495273087231</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.002076026788713</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.006446616002897</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.010912982907021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9569686371506853</v>
+        <v>0.9609840032647647</v>
       </c>
       <c r="D24">
-        <v>0.9788079901221493</v>
+        <v>0.9840175640697365</v>
       </c>
       <c r="E24">
-        <v>0.9705747444713738</v>
+        <v>0.9740281663203023</v>
       </c>
       <c r="F24">
-        <v>0.9309502878213809</v>
+        <v>0.9326798241139149</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.019545205524757</v>
+        <v>1.01978461446956</v>
       </c>
       <c r="J24">
-        <v>0.9862300418369169</v>
+        <v>0.9900713135562664</v>
       </c>
       <c r="K24">
-        <v>0.9932177705490054</v>
+        <v>0.9983312854691889</v>
       </c>
       <c r="L24">
-        <v>0.9851390866862293</v>
+        <v>0.9885272622941242</v>
       </c>
       <c r="M24">
-        <v>0.9463091519157656</v>
+        <v>0.948002143809197</v>
       </c>
       <c r="N24">
-        <v>0.99958974685693</v>
+        <v>1.00487255666889</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>0.966075458855994</v>
+        <v>0.967415506445969</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.006326389603102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.009956492533207</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.012092019585046</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9673506179448839</v>
+        <v>0.970631827592526</v>
       </c>
       <c r="D25">
-        <v>0.9865404195045681</v>
+        <v>0.9907910421753006</v>
       </c>
       <c r="E25">
-        <v>0.9788461662282514</v>
+        <v>0.9816750765931034</v>
       </c>
       <c r="F25">
-        <v>0.9549917927409161</v>
+        <v>0.956323743629839</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.028355874551769</v>
+        <v>1.028522686817963</v>
       </c>
       <c r="J25">
-        <v>0.9930290359214159</v>
+        <v>0.9961896456491265</v>
       </c>
       <c r="K25">
-        <v>0.9993513345278348</v>
+        <v>1.003534017548514</v>
       </c>
       <c r="L25">
-        <v>0.9917819915084014</v>
+        <v>0.9945646842904567</v>
       </c>
       <c r="M25">
-        <v>0.9683314436765703</v>
+        <v>0.9696401587464376</v>
       </c>
       <c r="N25">
-        <v>1.00184775660018</v>
+        <v>1.006439111316011</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>0.9835064295044027</v>
+        <v>0.9845422800810832</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.010660480648311</v>
+        <v>1.013632009744802</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.013311261143372</v>
       </c>
     </row>
   </sheetData>
